--- a/observations/orbit_plans/mtp076/nomad_mtp076_plan.xlsx
+++ b/observations/orbit_plans/mtp076/nomad_mtp076_plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="578">
   <si>
     <t>#orbitType</t>
   </si>
@@ -61,1587 +61,1602 @@
     <t xml:space="preserve">&amp;LST=8.4hrs; &amp;Angle=56; </t>
   </si>
   <si>
+    <t>6SUBD CO #2</t>
+  </si>
+  <si>
+    <t>LNO CO Fullscan Fast #1</t>
+  </si>
+  <si>
+    <t>2024 JAN 20 17:59:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.4hrs; &amp;Angle=57; </t>
+  </si>
+  <si>
+    <t>2024 JAN 20 19:57:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ELYSIUM MONS; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #14</t>
+  </si>
+  <si>
+    <t>2024 JAN 20 21:55:15</t>
+  </si>
+  <si>
+    <t>Nominal 6SUBD #2</t>
+  </si>
+  <si>
+    <t>2024 JAN 20 23:53:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.3hrs; &amp;Angle=57; </t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #2</t>
+  </si>
+  <si>
+    <t>CO Fullscan Fast #2</t>
+  </si>
+  <si>
+    <t>2024 JAN 21 01:51:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.3hrs; &amp;Angle=58; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #11</t>
+  </si>
+  <si>
+    <t>2024 JAN 21 03:49:00</t>
+  </si>
+  <si>
+    <t>2024 JAN 21 05:47:00</t>
+  </si>
+  <si>
+    <t>uvisNightLimb</t>
+  </si>
+  <si>
+    <t>2024 JAN 21 07:45:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ARGYRE; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2024 JAN 21 09:42:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.3hrs; &amp;Angle=59; </t>
+  </si>
+  <si>
+    <t>2024 JAN 21 11:40:54</t>
+  </si>
+  <si>
+    <t>Surface Ice 2SUBD #1</t>
+  </si>
+  <si>
+    <t>2024 JAN 21 13:38:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>All Fullscan Fast #2</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #48</t>
+  </si>
+  <si>
+    <t>2024 JAN 21 15:36:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.2hrs; &amp;Angle=59; </t>
+  </si>
+  <si>
+    <t>2024 JAN 21 17:34:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.2hrs; &amp;Angle=60; </t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #11</t>
+  </si>
+  <si>
+    <t>2024 JAN 21 19:32:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CERBERUS FOSSAE; </t>
+  </si>
+  <si>
+    <t>Fullscan fast step5 all #1</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O CO #15</t>
+  </si>
+  <si>
+    <t>2024 JAN 21 21:30:46</t>
+  </si>
+  <si>
+    <t>2024 JAN 21 23:28:43</t>
+  </si>
+  <si>
+    <t>6SUBD CH4 H2O #1</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #19</t>
+  </si>
+  <si>
+    <t>2024 JAN 22 01:26:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;ingressMatch:ULYSSES FOSSAE; &amp;daysideMatch:NILI FOSSAE; </t>
+  </si>
+  <si>
+    <t>2024 JAN 22 03:24:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.2hrs; &amp;Angle=61; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 CO #27</t>
+  </si>
+  <si>
+    <t>All Fullscan Slow #2</t>
+  </si>
+  <si>
+    <t>2024 JAN 22 05:22:33</t>
+  </si>
+  <si>
+    <t>2024 JAN 22 07:20:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.1hrs; &amp;Angle=61; </t>
+  </si>
+  <si>
+    <t>2024 JAN 22 09:18:33</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #23</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #12</t>
+  </si>
+  <si>
+    <t>2024 JAN 22 11:16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.1hrs; &amp;Angle=62; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #13</t>
+  </si>
+  <si>
+    <t>2024 JAN 22 13:14:25</t>
+  </si>
+  <si>
+    <t>2024 JAN 22 15:12:20</t>
+  </si>
+  <si>
+    <t>2024 JAN 22 17:10:19</t>
+  </si>
+  <si>
+    <t>2024 JAN 22 19:08:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.1hrs; &amp;Angle=63; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 CO #28</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #42</t>
+  </si>
+  <si>
+    <t>2024 JAN 22 21:06:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CURIOSITY; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #12</t>
+  </si>
+  <si>
+    <t>uvisMerged</t>
+  </si>
+  <si>
+    <t>2024 JAN 22 23:04:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.0hrs; &amp;Angle=63; </t>
+  </si>
+  <si>
+    <t>2024 JAN 23 01:02:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:UTOPIA; </t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #53</t>
+  </si>
+  <si>
+    <t>2024 JAN 23 03:00:11</t>
+  </si>
+  <si>
+    <t>2024 JAN 23 04:58:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.0hrs; &amp;Angle=64; </t>
+  </si>
+  <si>
+    <t>2024 JAN 23 06:56:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:VERNAL CRATER; </t>
+  </si>
+  <si>
+    <t>6SUBD Nom CH4 #2</t>
+  </si>
+  <si>
+    <t>uvisGrazing</t>
+  </si>
+  <si>
+    <t>2024 JAN 23 08:54:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;grazingMatch:INSIGHT; &amp;grazingMatch:CURIOSITY; &amp;daysideMatch:ACIDALIA MUD VOLCANOES BASIN; </t>
+  </si>
+  <si>
+    <t>2024 JAN 23 10:52:13</t>
+  </si>
+  <si>
+    <t>2024 JAN 23 12:50:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.9hrs; &amp;Angle=65; </t>
+  </si>
+  <si>
+    <t>2024 JAN 23 14:48:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:OLYMPICA FOSSAE-JOVIS THOLUS; &amp;daysideMatch:ARSIA MONS; </t>
+  </si>
+  <si>
+    <t>2024 JAN 23 16:46:02</t>
+  </si>
+  <si>
+    <t>2024 JAN 23 18:44:05</t>
+  </si>
+  <si>
+    <t>2024 JAN 23 20:42:08</t>
+  </si>
+  <si>
+    <t>2024 JAN 23 22:40:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.9hrs; &amp;Angle=66; </t>
+  </si>
+  <si>
+    <t>2024 JAN 24 00:38:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;grazingMatch:SOUTH THAUMASIA; </t>
+  </si>
+  <si>
+    <t>2024 JAN 24 02:36:01</t>
+  </si>
+  <si>
+    <t>2024 JAN 24 04:34:00</t>
+  </si>
+  <si>
+    <t>2024 JAN 24 06:32:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.9hrs; &amp;Angle=67; </t>
+  </si>
+  <si>
+    <t>2024 JAN 24 08:30:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.8hrs; &amp;Angle=67; </t>
+  </si>
+  <si>
+    <t>2024 JAN 24 10:28:06</t>
+  </si>
+  <si>
+    <t>2024 JAN 24 12:26:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;trueNightLimb; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2024 JAN 24 14:24:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ASCRAEUS MONS; </t>
+  </si>
+  <si>
+    <t>Ice CO 2SUBD #2</t>
+  </si>
+  <si>
+    <t>2024 JAN 24 16:21:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:OLYMPUS MONS; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2024 JAN 24 18:20:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.8hrs; &amp;Angle=68; </t>
+  </si>
+  <si>
+    <t>2024 JAN 24 20:18:05</t>
+  </si>
+  <si>
+    <t>2024 JAN 24 22:16:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; </t>
+  </si>
+  <si>
+    <t>2024 JAN 25 00:14:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:TIANWEN1; </t>
+  </si>
+  <si>
+    <t>2024 JAN 25 02:12:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.7hrs; &amp;Angle=69; </t>
+  </si>
+  <si>
+    <t>2024 JAN 25 04:10:03</t>
+  </si>
+  <si>
+    <t>2024 JAN 25 06:08:06</t>
+  </si>
+  <si>
+    <t>2024 JAN 25 08:06:11</t>
+  </si>
+  <si>
+    <t>2024 JAN 25 10:04:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.7hrs; &amp;Angle=70; </t>
+  </si>
+  <si>
+    <t>2024 JAN 25 12:02:15</t>
+  </si>
+  <si>
+    <t>2024 JAN 25 14:00:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CLARITAS RISE; </t>
+  </si>
+  <si>
+    <t>Ice CO 2SUBD #3</t>
+  </si>
+  <si>
+    <t>2024 JAN 25 15:58:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ULYSSES FOSSAE; </t>
+  </si>
+  <si>
+    <t>2024 JAN 25 17:56:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.7hrs; &amp;Angle=71; </t>
+  </si>
+  <si>
+    <t>2024 JAN 25 19:54:20</t>
+  </si>
+  <si>
+    <t>2024 JAN 25 21:52:26</t>
+  </si>
+  <si>
+    <t>2024 JAN 25 23:50:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nomadSolarCalibration; </t>
+  </si>
+  <si>
+    <t>2024 JAN 26 01:48:28</t>
+  </si>
+  <si>
+    <t>2024 JAN 26 03:46:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.6hrs; &amp;Angle=72; </t>
+  </si>
+  <si>
+    <t>2024 JAN 26 05:44:29</t>
+  </si>
+  <si>
+    <t>2024 JAN 26 07:42:36</t>
+  </si>
+  <si>
+    <t>2024 JAN 26 09:40:42</t>
+  </si>
+  <si>
+    <t>2024 JAN 26 11:38:47</t>
+  </si>
+  <si>
+    <t>2024 JAN 26 13:36:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nomadPhobos; </t>
+  </si>
+  <si>
+    <t>2024 JAN 26 15:34:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS FOSSAE; </t>
+  </si>
+  <si>
+    <t>2024 JAN 26 17:32:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.6hrs; &amp;Angle=73; </t>
+  </si>
+  <si>
+    <t>2024 JAN 26 19:30:57</t>
+  </si>
+  <si>
+    <t>2024 JAN 26 21:29:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ELYSIUM CERBERUS PHLEGRA; </t>
+  </si>
+  <si>
+    <t>2024 JAN 26 23:27:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; </t>
+  </si>
+  <si>
+    <t>2024 JAN 27 01:25:18</t>
+  </si>
+  <si>
+    <t>2024 JAN 27 03:23:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:PERSEVERANCE; </t>
+  </si>
+  <si>
+    <t>2024 JAN 27 05:21:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.6hrs; &amp;Angle=74; </t>
+  </si>
+  <si>
+    <t>2024 JAN 27 07:19:31</t>
+  </si>
+  <si>
+    <t>2024 JAN 27 09:17:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.6hrs; &amp;Angle=75; </t>
+  </si>
+  <si>
+    <t>2024 JAN 27 11:15:50</t>
+  </si>
+  <si>
+    <t>2024 JAN 27 13:13:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;possibleOCM; </t>
+  </si>
+  <si>
+    <t>2024 JAN 27 15:11:59</t>
+  </si>
+  <si>
+    <t>2024 JAN 27 17:10:02</t>
+  </si>
+  <si>
+    <t>2024 JAN 27 19:08:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.6hrs; &amp;Angle=76; </t>
+  </si>
+  <si>
+    <t>2024 JAN 27 21:06:25</t>
+  </si>
+  <si>
+    <t>2024 JAN 27 23:04:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:AEOLIS MENSAE MFF; </t>
+  </si>
+  <si>
+    <t>2024 JAN 28 01:02:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.7hrs; &amp;Angle=76; </t>
+  </si>
+  <si>
+    <t>2024 JAN 28 03:00:51</t>
+  </si>
+  <si>
+    <t>2024 JAN 28 04:58:55</t>
+  </si>
+  <si>
+    <t>2024 JAN 28 06:57:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.7hrs; &amp;Angle=77; </t>
+  </si>
+  <si>
+    <t>2024 JAN 28 08:55:21</t>
+  </si>
+  <si>
+    <t>2024 JAN 28 10:53:35</t>
+  </si>
+  <si>
+    <t>2024 JAN 28 12:51:47</t>
+  </si>
+  <si>
+    <t>2024 JAN 28 14:49:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.8hrs; &amp;Angle=77; </t>
+  </si>
+  <si>
+    <t>2024 JAN 28 16:48:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:PAVONIS MONS; </t>
+  </si>
+  <si>
+    <t>2024 JAN 28 18:46:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.8hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2024 JAN 28 20:44:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.9hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2024 JAN 28 22:42:51</t>
+  </si>
+  <si>
+    <t>2024 JAN 29 00:41:07</t>
+  </si>
+  <si>
+    <t>2024 JAN 29 02:39:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.0hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2024 JAN 29 04:37:28</t>
+  </si>
+  <si>
+    <t>2024 JAN 29 06:35:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.1hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2024 JAN 29 08:34:01</t>
+  </si>
+  <si>
+    <t>2024 JAN 29 10:32:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.2hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2024 JAN 29 12:30:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.3hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2024 JAN 29 14:28:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;trueNightLimb; </t>
+  </si>
+  <si>
+    <t>2024 JAN 29 16:27:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS THOLUS; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2024 JAN 29 18:25:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.5hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2024 JAN 29 20:23:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.6hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2024 JAN 29 22:22:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.8hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2024 JAN 30 00:20:31</t>
+  </si>
+  <si>
+    <t>2024 JAN 30 02:18:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.0hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2024 JAN 30 04:17:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.2hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2024 JAN 30 06:15:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.4hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2024 JAN 30 08:13:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.6hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2024 JAN 30 10:12:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.8hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2024 JAN 30 12:10:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES NE; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2024 JAN 30 14:09:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.4hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2024 JAN 30 16:07:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.7hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2024 JAN 30 18:05:38</t>
+  </si>
+  <si>
+    <t>2024 JAN 30 20:03:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.4hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2024 JAN 30 22:02:26</t>
+  </si>
+  <si>
+    <t>2024 JAN 31 00:00:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=12.2hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2024 JAN 31 01:59:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=12.6hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2024 JAN 31 03:57:43</t>
+  </si>
+  <si>
+    <t>2024 JAN 31 05:56:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=13.3hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2024 JAN 31 07:54:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;cassisSolarCalibration; </t>
+  </si>
+  <si>
+    <t>2024 JAN 31 09:52:47</t>
+  </si>
+  <si>
+    <t>2024 JAN 31 11:51:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.2hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2024 JAN 31 13:49:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.4hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2024 JAN 31 15:48:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.7hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2024 JAN 31 17:46:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.9hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2024 JAN 31 19:44:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.0hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2024 JAN 31 21:43:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.2hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2024 JAN 31 23:41:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.3hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2024 FEB 01 01:39:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.5hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2024 FEB 01 03:38:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.6hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2024 FEB 01 05:36:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:OLYMPICA FOSSAE-JOVIS THOLUS; </t>
+  </si>
+  <si>
+    <t>2024 FEB 01 07:34:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.8hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2024 FEB 01 09:33:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.8hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2024 FEB 01 11:31:37</t>
+  </si>
+  <si>
+    <t>2024 FEB 01 13:30:02</t>
+  </si>
+  <si>
+    <t>2024 FEB 01 15:28:25</t>
+  </si>
+  <si>
+    <t>2024 FEB 01 17:26:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.1hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2024 FEB 01 19:24:57</t>
+  </si>
+  <si>
+    <t>2024 FEB 01 21:23:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.2hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2024 FEB 01 23:21:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:MAWRTH VALLIS; </t>
+  </si>
+  <si>
+    <t>2024 FEB 02 01:19:50</t>
+  </si>
+  <si>
+    <t>2024 FEB 02 03:18:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.3hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2024 FEB 02 05:16:28</t>
+  </si>
+  <si>
+    <t>2024 FEB 02 07:14:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:OLYMPUS MONS; </t>
+  </si>
+  <si>
+    <t>2024 FEB 02 09:12:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.4hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2024 FEB 02 11:11:04</t>
+  </si>
+  <si>
+    <t>2024 FEB 02 13:09:23</t>
+  </si>
+  <si>
+    <t>2024 FEB 02 15:07:41</t>
+  </si>
+  <si>
+    <t>2024 FEB 02 17:05:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2024 FEB 02 19:04:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=77; </t>
+  </si>
+  <si>
+    <t>2024 FEB 02 21:02:13</t>
+  </si>
+  <si>
+    <t>2024 FEB 02 23:00:24</t>
+  </si>
+  <si>
+    <t>2024 FEB 03 00:58:38</t>
+  </si>
+  <si>
+    <t>2024 FEB 03 02:56:52</t>
+  </si>
+  <si>
+    <t>2024 FEB 03 04:55:06</t>
+  </si>
+  <si>
+    <t>2024 FEB 03 06:53:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=76; </t>
+  </si>
+  <si>
+    <t>2024 FEB 03 08:51:21</t>
+  </si>
+  <si>
+    <t>2024 FEB 03 10:49:27</t>
+  </si>
+  <si>
+    <t>2024 FEB 03 12:47:39</t>
+  </si>
+  <si>
+    <t>2024 FEB 03 14:45:52</t>
+  </si>
+  <si>
+    <t>2024 FEB 03 16:44:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=75; </t>
+  </si>
+  <si>
+    <t>2024 FEB 03 18:42:12</t>
+  </si>
+  <si>
+    <t>2024 FEB 03 20:40:15</t>
+  </si>
+  <si>
+    <t>2024 FEB 03 22:38:19</t>
+  </si>
+  <si>
+    <t>2024 FEB 04 00:36:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES BASIN; &amp;daysideMatch:MAWRTH VALLIS-ARAM CHAOS; </t>
+  </si>
+  <si>
+    <t>2024 FEB 04 02:34:37</t>
+  </si>
+  <si>
+    <t>2024 FEB 04 04:32:47</t>
+  </si>
+  <si>
+    <t>2024 FEB 04 06:30:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nomadPhobos; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2024 FEB 04 08:28:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=74; </t>
+  </si>
+  <si>
+    <t>2024 FEB 04 10:26:58</t>
+  </si>
+  <si>
+    <t>2024 FEB 04 12:25:04</t>
+  </si>
+  <si>
+    <t>2024 FEB 04 14:23:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=73; </t>
+  </si>
+  <si>
+    <t>2024 FEB 04 16:21:22</t>
+  </si>
+  <si>
+    <t>2024 FEB 04 18:19:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:PERSEVERANCE; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2024 FEB 04 20:17:29</t>
+  </si>
+  <si>
+    <t>2024 FEB 04 22:15:29</t>
+  </si>
+  <si>
+    <t>2024 FEB 05 00:13:32</t>
+  </si>
+  <si>
+    <t>2024 FEB 05 02:11:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=72; </t>
+  </si>
+  <si>
+    <t>2024 FEB 05 04:09:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:EASTERN COPRATES; </t>
+  </si>
+  <si>
+    <t>2024 FEB 05 06:07:52</t>
+  </si>
+  <si>
+    <t>2024 FEB 05 08:05:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ULYSSES FOSSAE; &amp;daysideMatch:ULYSSES THOLUS; </t>
+  </si>
+  <si>
+    <t>2024 FEB 05 10:03:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.4hrs; &amp;Angle=71; </t>
+  </si>
+  <si>
+    <t>2024 FEB 05 12:01:53</t>
+  </si>
+  <si>
+    <t>2024 FEB 05 13:59:59</t>
+  </si>
+  <si>
+    <t>2024 FEB 05 15:58:06</t>
+  </si>
+  <si>
+    <t>2024 FEB 05 17:56:11</t>
+  </si>
+  <si>
+    <t>2024 FEB 05 19:54:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.4hrs; &amp;Angle=70; </t>
+  </si>
+  <si>
+    <t>2024 FEB 05 21:52:09</t>
+  </si>
+  <si>
+    <t>2024 FEB 05 23:50:09</t>
+  </si>
+  <si>
+    <t>2024 FEB 06 01:48:12</t>
+  </si>
+  <si>
+    <t>2024 FEB 06 03:46:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.4hrs; &amp;Angle=69; </t>
+  </si>
+  <si>
+    <t>2024 FEB 06 05:44:20</t>
+  </si>
+  <si>
+    <t>2024 FEB 06 07:42:22</t>
+  </si>
+  <si>
+    <t>2024 FEB 06 09:40:19</t>
+  </si>
+  <si>
+    <t>2024 FEB 06 11:38:17</t>
+  </si>
+  <si>
+    <t>2024 FEB 06 13:36:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.3hrs; &amp;Angle=68; </t>
+  </si>
+  <si>
+    <t>2024 FEB 06 15:34:23</t>
+  </si>
+  <si>
+    <t>2024 FEB 06 17:32:28</t>
+  </si>
+  <si>
+    <t>2024 FEB 06 19:30:29</t>
+  </si>
+  <si>
+    <t>2024 FEB 06 21:28:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.3hrs; &amp;Angle=67; </t>
+  </si>
+  <si>
+    <t>2024 FEB 06 23:26:22</t>
+  </si>
+  <si>
+    <t>2024 FEB 07 01:24:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.2hrs; &amp;Angle=67; </t>
+  </si>
+  <si>
+    <t>2024 FEB 07 03:22:25</t>
+  </si>
+  <si>
+    <t>2024 FEB 07 05:20:28</t>
+  </si>
+  <si>
+    <t>2024 FEB 07 07:18:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.2hrs; &amp;Angle=66; </t>
+  </si>
+  <si>
+    <t>2024 FEB 07 09:16:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ARSIA MONS; </t>
+  </si>
+  <si>
+    <t>Surface Ice 3SUBD #2</t>
+  </si>
+  <si>
+    <t>2024 FEB 07 11:14:24</t>
+  </si>
+  <si>
+    <t>2024 FEB 07 13:12:23</t>
+  </si>
+  <si>
+    <t>2024 FEB 07 15:10:25</t>
+  </si>
+  <si>
+    <t>2024 FEB 07 17:08:29</t>
+  </si>
+  <si>
+    <t>2024 FEB 07 19:06:30</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #45</t>
+  </si>
+  <si>
+    <t>2024 FEB 07 21:04:27</t>
+  </si>
+  <si>
+    <t>2024 FEB 07 23:02:22</t>
+  </si>
+  <si>
+    <t>2024 FEB 08 01:00:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.1hrs; &amp;Angle=64; </t>
+  </si>
+  <si>
+    <t>2024 FEB 08 02:58:20</t>
+  </si>
+  <si>
+    <t>2024 FEB 08 04:56:22</t>
+  </si>
+  <si>
+    <t>2024 FEB 08 06:54:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;grazingMatch:INSIGHT; &amp;grazingMatch:CURIOSITY; </t>
+  </si>
+  <si>
+    <t>2024 FEB 08 08:52:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.1hrs; &amp;Angle=63; </t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #1</t>
+  </si>
+  <si>
+    <t>2024 FEB 08 10:50:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.0hrs; &amp;Angle=63; </t>
+  </si>
+  <si>
+    <t>2024 FEB 08 12:48:13</t>
+  </si>
+  <si>
+    <t>2024 FEB 08 14:46:13</t>
+  </si>
+  <si>
+    <t>2024 FEB 08 16:44:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;egressMatch:VERNAL CRATER; </t>
+  </si>
+  <si>
+    <t>2024 FEB 08 18:42:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.0hrs; &amp;Angle=62; </t>
+  </si>
+  <si>
+    <t>2024 FEB 08 20:40:14</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #13</t>
+  </si>
+  <si>
+    <t>2024 FEB 08 22:38:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;ingressMatch:SOUTH THAUMASIA; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2024 FEB 09 00:36:05</t>
+  </si>
+  <si>
+    <t>2024 FEB 09 02:34:04</t>
+  </si>
+  <si>
+    <t>uvisOnlyNightside</t>
+  </si>
+  <si>
+    <t>2024 FEB 09 04:32:05</t>
+  </si>
+  <si>
+    <t>Surface Ice 4SUBD 01</t>
+  </si>
+  <si>
+    <t>2024 FEB 09 06:30:05</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #51</t>
+  </si>
+  <si>
+    <t>2024 FEB 09 08:28:04</t>
+  </si>
+  <si>
+    <t>2024 FEB 09 10:26:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.9hrs; &amp;Angle=60; </t>
+  </si>
+  <si>
+    <t>2024 FEB 09 12:23:55</t>
+  </si>
+  <si>
+    <t>CO2 Fullscan Fast #3</t>
+  </si>
+  <si>
+    <t>2024 FEB 09 14:21:53</t>
+  </si>
+  <si>
+    <t>2024 FEB 09 16:19:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.8hrs; &amp;Angle=60; </t>
+  </si>
+  <si>
+    <t>2024 FEB 09 18:17:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.8hrs; &amp;Angle=59; </t>
+  </si>
+  <si>
+    <t>2024 FEB 09 20:15:54</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 CO #29</t>
+  </si>
+  <si>
+    <t>2024 FEB 09 22:13:49</t>
+  </si>
+  <si>
+    <t>2024 FEB 10 00:11:43</t>
+  </si>
+  <si>
+    <t>2024 FEB 10 02:09:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;egressMatch:OLYMPUS MONS; </t>
+  </si>
+  <si>
+    <t>2024 FEB 10 04:07:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.8hrs; &amp;Angle=58; </t>
+  </si>
+  <si>
+    <t>2024 FEB 10 06:05:39</t>
+  </si>
+  <si>
+    <t>2024 FEB 10 08:03:38</t>
+  </si>
+  <si>
+    <t>2024 FEB 10 10:01:35</t>
+  </si>
+  <si>
+    <t>2024 FEB 10 11:59:29</t>
+  </si>
+  <si>
+    <t>Fullscan fast step4 all #1</t>
+  </si>
+  <si>
+    <t>2024 FEB 10 13:57:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;possibleOCM; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2024 FEB 10 15:55:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;possibleOCM; &amp;daysideMatch:CERBERUS FOSSAE; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2024 FEB 10 17:53:25</t>
+  </si>
+  <si>
+    <t>2024 FEB 10 19:51:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.6hrs; &amp;Angle=56; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #21</t>
+  </si>
+  <si>
+    <t>2024 FEB 10 21:49:21</t>
+  </si>
+  <si>
+    <t>2024 FEB 10 23:47:14</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #24</t>
+  </si>
+  <si>
+    <t>2024 FEB 11 01:45:10</t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO #6</t>
+  </si>
+  <si>
+    <t>2024 FEB 11 03:43:08</t>
+  </si>
+  <si>
+    <t>2024 FEB 11 05:41:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.6hrs; &amp;Angle=55; </t>
+  </si>
+  <si>
+    <t>2024 FEB 11 07:39:07</t>
+  </si>
+  <si>
+    <t>Dust H2O 01</t>
+  </si>
+  <si>
+    <t>2024 FEB 11 09:37:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS FOSSAE; &amp;daysideMatch:SOUTH THAUMASIA; </t>
+  </si>
+  <si>
+    <t>2024 FEB 11 11:34:59</t>
+  </si>
+  <si>
     <t>6SUBD Nominal #52</t>
   </si>
   <si>
-    <t>6SUBD CO2 CO #29</t>
-  </si>
-  <si>
-    <t>2024 JAN 20 17:59:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.4hrs; &amp;Angle=57; </t>
-  </si>
-  <si>
-    <t>2024 JAN 20 19:57:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ELYSIUM MONS; </t>
+    <t>2024 FEB 11 13:32:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.5hrs; &amp;Angle=54; </t>
+  </si>
+  <si>
+    <t>2024 FEB 11 15:30:51</t>
+  </si>
+  <si>
+    <t>2024 FEB 11 17:28:51</t>
+  </si>
+  <si>
+    <t>H2O CO 2SUBD #1</t>
+  </si>
+  <si>
+    <t>2024 FEB 11 19:26:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:TIANWEN1; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>6SUBD CO #3</t>
+  </si>
+  <si>
+    <t>2024 FEB 11 21:24:49</t>
+  </si>
+  <si>
+    <t>2024 FEB 11 23:22:42</t>
+  </si>
+  <si>
+    <t>LNO Occultation Fullscan Fast #2</t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO #7</t>
+  </si>
+  <si>
+    <t>2024 FEB 12 01:20:36</t>
+  </si>
+  <si>
+    <t>2024 FEB 12 03:18:33</t>
+  </si>
+  <si>
+    <t>2024 FEB 12 05:16:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.4hrs; &amp;Angle=52; </t>
+  </si>
+  <si>
+    <t>2024 FEB 12 07:14:31</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #54</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 CO #34</t>
+  </si>
+  <si>
+    <t>2024 FEB 12 09:12:29</t>
+  </si>
+  <si>
+    <t>2024 FEB 12 11:10:25</t>
+  </si>
+  <si>
+    <t>2024 FEB 12 13:08:18</t>
+  </si>
+  <si>
+    <t>2024 FEB 12 15:06:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.3hrs; &amp;Angle=51; </t>
+  </si>
+  <si>
+    <t>2024 FEB 12 17:04:14</t>
+  </si>
+  <si>
+    <t>2024 FEB 12 19:02:14</t>
+  </si>
+  <si>
+    <t>2024 FEB 12 21:00:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;egressMatch:ACIDALIA MUD VOLCANOES BASIN; </t>
+  </si>
+  <si>
+    <t>2024 FEB 12 22:58:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.3hrs; &amp;Angle=50; </t>
+  </si>
+  <si>
+    <t>2024 FEB 13 00:56:00</t>
+  </si>
+  <si>
+    <t>2024 FEB 13 02:53:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;egressMatch:ALBA MONS; </t>
+  </si>
+  <si>
+    <t>2024 FEB 13 04:51:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nomadPhobos; &amp;daysideMatch:MAWRTH VALLIS-ARAM CHAOS; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2024 FEB 13 06:49:53</t>
+  </si>
+  <si>
+    <t>2024 FEB 13 08:47:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:EAST THAUMASIA; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2024 FEB 13 10:45:48</t>
+  </si>
+  <si>
+    <t>2024 FEB 13 12:43:41</t>
+  </si>
+  <si>
+    <t>2024 FEB 13 14:41:36</t>
+  </si>
+  <si>
+    <t>2024 FEB 13 16:39:34</t>
+  </si>
+  <si>
+    <t>2024 FEB 13 18:37:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.1hrs; &amp;Angle=48; </t>
+  </si>
+  <si>
+    <t>6SUBD CO #6</t>
+  </si>
+  <si>
+    <t>CO2 Fullscan Fast #2</t>
+  </si>
+  <si>
+    <t>2024 FEB 13 20:35:32</t>
+  </si>
+  <si>
+    <t>2024 FEB 13 22:33:29</t>
+  </si>
+  <si>
+    <t>2024 FEB 14 00:31:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.1hrs; &amp;Angle=47; </t>
+  </si>
+  <si>
+    <t>2024 FEB 14 02:29:16</t>
+  </si>
+  <si>
+    <t>2024 FEB 14 04:27:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.0hrs; &amp;Angle=47; </t>
+  </si>
+  <si>
+    <t>2024 FEB 14 06:25:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.0hrs; &amp;Angle=46; </t>
+  </si>
+  <si>
+    <t>2024 FEB 14 08:23:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:COPRATES RISE; </t>
+  </si>
+  <si>
+    <t>2024 FEB 14 10:21:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS THOLUS; </t>
+  </si>
+  <si>
+    <t>2024 FEB 14 12:19:02</t>
+  </si>
+  <si>
+    <t>2024 FEB 14 14:16:56</t>
+  </si>
+  <si>
+    <t>2024 FEB 14 16:14:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.0hrs; &amp;Angle=45; </t>
+  </si>
+  <si>
+    <t>2024 FEB 14 18:12:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ELYSIUM MONS; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2024 FEB 14 20:10:51</t>
+  </si>
+  <si>
+    <t>CH4 3SUBD 01</t>
+  </si>
+  <si>
+    <t>2024 FEB 14 22:08:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:UTOPIA; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2024 FEB 15 00:06:42</t>
+  </si>
+  <si>
+    <t>2024 FEB 15 02:04:36</t>
+  </si>
+  <si>
+    <t>2024 FEB 15 04:02:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.9hrs; &amp;Angle=44; </t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO #1</t>
+  </si>
+  <si>
+    <t>HCL #10</t>
+  </si>
+  <si>
+    <t>2024 FEB 15 06:00:29</t>
+  </si>
+  <si>
+    <t>2024 FEB 15 07:58:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.8hrs; &amp;Angle=43; </t>
+  </si>
+  <si>
+    <t>2024 FEB 15 09:56:25</t>
+  </si>
+  <si>
+    <t>2024 FEB 15 11:54:20</t>
+  </si>
+  <si>
+    <t>2024 FEB 15 13:52:14</t>
+  </si>
+  <si>
+    <t>2024 FEB 15 15:50:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=14.8hrs; &amp;Angle=42; </t>
+  </si>
+  <si>
+    <t>2024 FEB 15 17:48:07</t>
+  </si>
+  <si>
+    <t>2024 FEB 15 19:46:06</t>
+  </si>
+  <si>
+    <t>CO2 Fullscan Fast #5</t>
   </si>
   <si>
     <t>6SUBD Nom CO2 #1</t>
   </si>
   <si>
-    <t>6SUBD CO2 CO #25</t>
-  </si>
-  <si>
-    <t>2024 JAN 20 21:55:15</t>
-  </si>
-  <si>
-    <t>Ice CO 2SUBD #2</t>
-  </si>
-  <si>
-    <t>2024 JAN 20 23:53:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.3hrs; &amp;Angle=57; </t>
-  </si>
-  <si>
-    <t>6SUBD CO #1</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 CO #34</t>
-  </si>
-  <si>
-    <t>2024 JAN 21 01:51:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.3hrs; &amp;Angle=58; </t>
-  </si>
-  <si>
-    <t>6SUBD CO #3</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #51</t>
-  </si>
-  <si>
-    <t>2024 JAN 21 03:49:00</t>
-  </si>
-  <si>
-    <t>2024 JAN 21 05:47:00</t>
-  </si>
-  <si>
-    <t>uvisNightLimb</t>
-  </si>
-  <si>
-    <t>2024 JAN 21 07:45:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ARGYRE; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2024 JAN 21 09:42:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.3hrs; &amp;Angle=59; </t>
-  </si>
-  <si>
-    <t>2024 JAN 21 11:40:54</t>
-  </si>
-  <si>
-    <t>Surface Ice 2SUBD #1</t>
-  </si>
-  <si>
-    <t>2024 JAN 21 13:38:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO #1</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #11</t>
-  </si>
-  <si>
-    <t>2024 JAN 21 15:36:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.2hrs; &amp;Angle=59; </t>
-  </si>
-  <si>
-    <t>2024 JAN 21 17:34:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.2hrs; &amp;Angle=60; </t>
-  </si>
-  <si>
-    <t>Fullscan fast step4 all #1</t>
-  </si>
-  <si>
-    <t>2024 JAN 21 19:32:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CERBERUS FOSSAE; </t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #53</t>
-  </si>
-  <si>
-    <t>2024 JAN 21 21:30:46</t>
-  </si>
-  <si>
-    <t>2024 JAN 21 23:28:43</t>
-  </si>
-  <si>
-    <t>6SUBD CH4 H2O #1</t>
-  </si>
-  <si>
-    <t>Dust H2O 01</t>
-  </si>
-  <si>
-    <t>2024 JAN 22 01:26:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;ingressMatch:ULYSSES FOSSAE; &amp;daysideMatch:NILI FOSSAE; </t>
-  </si>
-  <si>
-    <t>2024 JAN 22 03:24:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.2hrs; &amp;Angle=61; </t>
-  </si>
-  <si>
-    <t>Fullscan fast step5 all #1</t>
-  </si>
-  <si>
-    <t>2024 JAN 22 05:22:33</t>
-  </si>
-  <si>
-    <t>2024 JAN 22 07:20:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.1hrs; &amp;Angle=61; </t>
-  </si>
-  <si>
-    <t>2024 JAN 22 09:18:33</t>
-  </si>
-  <si>
-    <t>2024 JAN 22 11:16:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.1hrs; &amp;Angle=62; </t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #23</t>
-  </si>
-  <si>
-    <t>2024 JAN 22 13:14:25</t>
-  </si>
-  <si>
-    <t>Nominal 6SUBD #2</t>
-  </si>
-  <si>
-    <t>2024 JAN 22 15:12:20</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #45</t>
-  </si>
-  <si>
-    <t>2024 JAN 22 17:10:19</t>
-  </si>
-  <si>
-    <t>2024 JAN 22 19:08:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.1hrs; &amp;Angle=63; </t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O #13</t>
-  </si>
-  <si>
-    <t>6SUBD CO #6</t>
-  </si>
-  <si>
-    <t>2024 JAN 22 21:06:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CURIOSITY; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #1</t>
-  </si>
-  <si>
-    <t>uvisMerged</t>
-  </si>
-  <si>
-    <t>2024 JAN 22 23:04:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.0hrs; &amp;Angle=63; </t>
-  </si>
-  <si>
-    <t>2024 JAN 23 01:02:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:UTOPIA; </t>
-  </si>
-  <si>
-    <t>2024 JAN 23 03:00:11</t>
-  </si>
-  <si>
-    <t>2024 JAN 23 04:58:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.0hrs; &amp;Angle=64; </t>
-  </si>
-  <si>
-    <t>2024 JAN 23 06:56:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:VERNAL CRATER; </t>
-  </si>
-  <si>
-    <t>6SUBD Nom CH4 #2</t>
-  </si>
-  <si>
-    <t>uvisGrazing</t>
-  </si>
-  <si>
-    <t>2024 JAN 23 08:54:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;grazingMatch:INSIGHT; &amp;grazingMatch:CURIOSITY; &amp;daysideMatch:ACIDALIA MUD VOLCANOES BASIN; </t>
-  </si>
-  <si>
-    <t>2024 JAN 23 10:52:13</t>
-  </si>
-  <si>
-    <t>2024 JAN 23 12:50:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.9hrs; &amp;Angle=65; </t>
-  </si>
-  <si>
-    <t>2024 JAN 23 14:48:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:OLYMPICA FOSSAE-JOVIS THOLUS; &amp;daysideMatch:ARSIA MONS; </t>
-  </si>
-  <si>
-    <t>2024 JAN 23 16:46:02</t>
-  </si>
-  <si>
-    <t>2024 JAN 23 18:44:05</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #48</t>
-  </si>
-  <si>
-    <t>2024 JAN 23 20:42:08</t>
-  </si>
-  <si>
-    <t>2024 JAN 23 22:40:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.9hrs; &amp;Angle=66; </t>
-  </si>
-  <si>
-    <t>2024 JAN 24 00:38:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;grazingMatch:SOUTH THAUMASIA; </t>
-  </si>
-  <si>
-    <t>Surface Ice 4SUBD 01</t>
-  </si>
-  <si>
-    <t>2024 JAN 24 02:36:01</t>
-  </si>
-  <si>
-    <t>All Fullscan Fast #2</t>
-  </si>
-  <si>
-    <t>2024 JAN 24 04:34:00</t>
-  </si>
-  <si>
-    <t>2024 JAN 24 06:32:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.9hrs; &amp;Angle=67; </t>
-  </si>
-  <si>
-    <t>2024 JAN 24 08:30:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.8hrs; &amp;Angle=67; </t>
-  </si>
-  <si>
-    <t>2024 JAN 24 10:28:06</t>
-  </si>
-  <si>
-    <t>2024 JAN 24 12:26:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;trueNightLimb; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2024 JAN 24 14:24:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ASCRAEUS MONS; </t>
-  </si>
-  <si>
-    <t>2024 JAN 24 16:21:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:OLYMPUS MONS; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2024 JAN 24 18:20:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.8hrs; &amp;Angle=68; </t>
-  </si>
-  <si>
-    <t>2024 JAN 24 20:18:05</t>
-  </si>
-  <si>
-    <t>2024 JAN 24 22:16:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; </t>
-  </si>
-  <si>
-    <t>2024 JAN 25 00:14:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:TIANWEN1; </t>
-  </si>
-  <si>
-    <t>2024 JAN 25 02:12:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.7hrs; &amp;Angle=69; </t>
-  </si>
-  <si>
-    <t>2024 JAN 25 04:10:03</t>
-  </si>
-  <si>
-    <t>2024 JAN 25 06:08:06</t>
-  </si>
-  <si>
-    <t>2024 JAN 25 08:06:11</t>
-  </si>
-  <si>
-    <t>2024 JAN 25 10:04:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.7hrs; &amp;Angle=70; </t>
-  </si>
-  <si>
-    <t>2024 JAN 25 12:02:15</t>
-  </si>
-  <si>
-    <t>2024 JAN 25 14:00:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CLARITAS RISE; </t>
-  </si>
-  <si>
-    <t>Ice CO 2SUBD #3</t>
-  </si>
-  <si>
-    <t>2024 JAN 25 15:58:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ULYSSES FOSSAE; </t>
-  </si>
-  <si>
-    <t>2024 JAN 25 17:56:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.7hrs; &amp;Angle=71; </t>
-  </si>
-  <si>
-    <t>2024 JAN 25 19:54:20</t>
-  </si>
-  <si>
-    <t>2024 JAN 25 21:52:26</t>
-  </si>
-  <si>
-    <t>2024 JAN 25 23:50:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nomadSolarCalibration; </t>
-  </si>
-  <si>
-    <t>2024 JAN 26 01:48:28</t>
-  </si>
-  <si>
-    <t>2024 JAN 26 03:46:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.6hrs; &amp;Angle=72; </t>
-  </si>
-  <si>
-    <t>2024 JAN 26 05:44:29</t>
-  </si>
-  <si>
-    <t>2024 JAN 26 07:42:36</t>
-  </si>
-  <si>
-    <t>2024 JAN 26 09:40:42</t>
-  </si>
-  <si>
-    <t>2024 JAN 26 11:38:47</t>
-  </si>
-  <si>
-    <t>2024 JAN 26 13:36:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nomadPhobos; </t>
-  </si>
-  <si>
-    <t>2024 JAN 26 15:34:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS FOSSAE; </t>
-  </si>
-  <si>
-    <t>2024 JAN 26 17:32:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.6hrs; &amp;Angle=73; </t>
-  </si>
-  <si>
-    <t>2024 JAN 26 19:30:57</t>
-  </si>
-  <si>
-    <t>2024 JAN 26 21:29:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ELYSIUM CERBERUS PHLEGRA; </t>
-  </si>
-  <si>
-    <t>2024 JAN 26 23:27:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; </t>
-  </si>
-  <si>
-    <t>2024 JAN 27 01:25:18</t>
-  </si>
-  <si>
-    <t>2024 JAN 27 03:23:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:PERSEVERANCE; </t>
-  </si>
-  <si>
-    <t>2024 JAN 27 05:21:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.6hrs; &amp;Angle=74; </t>
-  </si>
-  <si>
-    <t>2024 JAN 27 07:19:31</t>
-  </si>
-  <si>
-    <t>2024 JAN 27 09:17:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.6hrs; &amp;Angle=75; </t>
-  </si>
-  <si>
-    <t>2024 JAN 27 11:15:50</t>
-  </si>
-  <si>
-    <t>2024 JAN 27 13:13:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;possibleOCM; </t>
-  </si>
-  <si>
-    <t>2024 JAN 27 15:11:59</t>
-  </si>
-  <si>
-    <t>2024 JAN 27 17:10:02</t>
-  </si>
-  <si>
-    <t>2024 JAN 27 19:08:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.6hrs; &amp;Angle=76; </t>
-  </si>
-  <si>
-    <t>2024 JAN 27 21:06:25</t>
-  </si>
-  <si>
-    <t>2024 JAN 27 23:04:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:AEOLIS MENSAE MFF; </t>
-  </si>
-  <si>
-    <t>2024 JAN 28 01:02:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.7hrs; &amp;Angle=76; </t>
-  </si>
-  <si>
-    <t>2024 JAN 28 03:00:51</t>
-  </si>
-  <si>
-    <t>2024 JAN 28 04:58:55</t>
-  </si>
-  <si>
-    <t>2024 JAN 28 06:57:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.7hrs; &amp;Angle=77; </t>
-  </si>
-  <si>
-    <t>2024 JAN 28 08:55:21</t>
-  </si>
-  <si>
-    <t>2024 JAN 28 10:53:35</t>
-  </si>
-  <si>
-    <t>2024 JAN 28 12:51:47</t>
-  </si>
-  <si>
-    <t>2024 JAN 28 14:49:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.8hrs; &amp;Angle=77; </t>
-  </si>
-  <si>
-    <t>2024 JAN 28 16:48:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:PAVONIS MONS; </t>
-  </si>
-  <si>
-    <t>2024 JAN 28 18:46:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.8hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2024 JAN 28 20:44:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.9hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2024 JAN 28 22:42:51</t>
-  </si>
-  <si>
-    <t>2024 JAN 29 00:41:07</t>
-  </si>
-  <si>
-    <t>2024 JAN 29 02:39:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.0hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2024 JAN 29 04:37:28</t>
-  </si>
-  <si>
-    <t>2024 JAN 29 06:35:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.1hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2024 JAN 29 08:34:01</t>
-  </si>
-  <si>
-    <t>2024 JAN 29 10:32:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.2hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2024 JAN 29 12:30:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.3hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2024 JAN 29 14:28:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;trueNightLimb; </t>
-  </si>
-  <si>
-    <t>2024 JAN 29 16:27:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS THOLUS; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2024 JAN 29 18:25:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.5hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2024 JAN 29 20:23:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.6hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2024 JAN 29 22:22:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.8hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2024 JAN 30 00:20:31</t>
-  </si>
-  <si>
-    <t>2024 JAN 30 02:18:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.0hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2024 JAN 30 04:17:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.2hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2024 JAN 30 06:15:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.4hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2024 JAN 30 08:13:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.6hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2024 JAN 30 10:12:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.8hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2024 JAN 30 12:10:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES NE; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2024 JAN 30 14:09:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.4hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2024 JAN 30 16:07:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.7hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2024 JAN 30 18:05:38</t>
-  </si>
-  <si>
-    <t>2024 JAN 30 20:03:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.4hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2024 JAN 30 22:02:26</t>
-  </si>
-  <si>
-    <t>2024 JAN 31 00:00:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=12.2hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2024 JAN 31 01:59:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=12.6hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2024 JAN 31 03:57:43</t>
-  </si>
-  <si>
-    <t>2024 JAN 31 05:56:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=13.3hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2024 JAN 31 07:54:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;cassisSolarCalibration; </t>
-  </si>
-  <si>
-    <t>2024 JAN 31 09:52:47</t>
-  </si>
-  <si>
-    <t>2024 JAN 31 11:51:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.2hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2024 JAN 31 13:49:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.4hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2024 JAN 31 15:48:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.7hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2024 JAN 31 17:46:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.9hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2024 JAN 31 19:44:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.0hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2024 JAN 31 21:43:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.2hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2024 JAN 31 23:41:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.3hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2024 FEB 01 01:39:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.5hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2024 FEB 01 03:38:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.6hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2024 FEB 01 05:36:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:OLYMPICA FOSSAE-JOVIS THOLUS; </t>
-  </si>
-  <si>
-    <t>2024 FEB 01 07:34:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.8hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2024 FEB 01 09:33:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.8hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2024 FEB 01 11:31:37</t>
-  </si>
-  <si>
-    <t>2024 FEB 01 13:30:02</t>
-  </si>
-  <si>
-    <t>2024 FEB 01 15:28:25</t>
-  </si>
-  <si>
-    <t>2024 FEB 01 17:26:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.1hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2024 FEB 01 19:24:57</t>
-  </si>
-  <si>
-    <t>2024 FEB 01 21:23:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.2hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2024 FEB 01 23:21:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:MAWRTH VALLIS; </t>
-  </si>
-  <si>
-    <t>2024 FEB 02 01:19:50</t>
-  </si>
-  <si>
-    <t>2024 FEB 02 03:18:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.3hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2024 FEB 02 05:16:28</t>
-  </si>
-  <si>
-    <t>2024 FEB 02 07:14:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:OLYMPUS MONS; </t>
-  </si>
-  <si>
-    <t>2024 FEB 02 09:12:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.4hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2024 FEB 02 11:11:04</t>
-  </si>
-  <si>
-    <t>2024 FEB 02 13:09:23</t>
-  </si>
-  <si>
-    <t>2024 FEB 02 15:07:41</t>
-  </si>
-  <si>
-    <t>2024 FEB 02 17:05:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2024 FEB 02 19:04:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=77; </t>
-  </si>
-  <si>
-    <t>2024 FEB 02 21:02:13</t>
-  </si>
-  <si>
-    <t>2024 FEB 02 23:00:24</t>
-  </si>
-  <si>
-    <t>2024 FEB 03 00:58:38</t>
-  </si>
-  <si>
-    <t>2024 FEB 03 02:56:52</t>
-  </si>
-  <si>
-    <t>2024 FEB 03 04:55:06</t>
-  </si>
-  <si>
-    <t>2024 FEB 03 06:53:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=76; </t>
-  </si>
-  <si>
-    <t>2024 FEB 03 08:51:21</t>
-  </si>
-  <si>
-    <t>2024 FEB 03 10:49:27</t>
-  </si>
-  <si>
-    <t>2024 FEB 03 12:47:39</t>
-  </si>
-  <si>
-    <t>2024 FEB 03 14:45:52</t>
-  </si>
-  <si>
-    <t>2024 FEB 03 16:44:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=75; </t>
-  </si>
-  <si>
-    <t>2024 FEB 03 18:42:12</t>
-  </si>
-  <si>
-    <t>2024 FEB 03 20:40:15</t>
-  </si>
-  <si>
-    <t>2024 FEB 03 22:38:19</t>
-  </si>
-  <si>
-    <t>2024 FEB 04 00:36:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES BASIN; &amp;daysideMatch:MAWRTH VALLIS-ARAM CHAOS; </t>
-  </si>
-  <si>
-    <t>2024 FEB 04 02:34:37</t>
-  </si>
-  <si>
-    <t>2024 FEB 04 04:32:47</t>
-  </si>
-  <si>
-    <t>2024 FEB 04 06:30:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nomadPhobos; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2024 FEB 04 08:28:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=74; </t>
-  </si>
-  <si>
-    <t>2024 FEB 04 10:26:58</t>
-  </si>
-  <si>
-    <t>2024 FEB 04 12:25:04</t>
-  </si>
-  <si>
-    <t>2024 FEB 04 14:23:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=73; </t>
-  </si>
-  <si>
-    <t>2024 FEB 04 16:21:22</t>
-  </si>
-  <si>
-    <t>2024 FEB 04 18:19:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:PERSEVERANCE; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2024 FEB 04 20:17:29</t>
-  </si>
-  <si>
-    <t>2024 FEB 04 22:15:29</t>
-  </si>
-  <si>
-    <t>2024 FEB 05 00:13:32</t>
-  </si>
-  <si>
-    <t>2024 FEB 05 02:11:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=72; </t>
-  </si>
-  <si>
-    <t>2024 FEB 05 04:09:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:EASTERN COPRATES; </t>
-  </si>
-  <si>
-    <t>2024 FEB 05 06:07:52</t>
-  </si>
-  <si>
-    <t>2024 FEB 05 08:05:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ULYSSES FOSSAE; &amp;daysideMatch:ULYSSES THOLUS; </t>
-  </si>
-  <si>
-    <t>2024 FEB 05 10:03:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.4hrs; &amp;Angle=71; </t>
-  </si>
-  <si>
-    <t>2024 FEB 05 12:01:53</t>
-  </si>
-  <si>
-    <t>2024 FEB 05 13:59:59</t>
-  </si>
-  <si>
-    <t>2024 FEB 05 15:58:06</t>
-  </si>
-  <si>
-    <t>2024 FEB 05 17:56:11</t>
-  </si>
-  <si>
-    <t>2024 FEB 05 19:54:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.4hrs; &amp;Angle=70; </t>
-  </si>
-  <si>
-    <t>2024 FEB 05 21:52:09</t>
-  </si>
-  <si>
-    <t>2024 FEB 05 23:50:09</t>
-  </si>
-  <si>
-    <t>2024 FEB 06 01:48:12</t>
-  </si>
-  <si>
-    <t>2024 FEB 06 03:46:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.4hrs; &amp;Angle=69; </t>
-  </si>
-  <si>
-    <t>2024 FEB 06 05:44:20</t>
-  </si>
-  <si>
-    <t>2024 FEB 06 07:42:22</t>
-  </si>
-  <si>
-    <t>2024 FEB 06 09:40:19</t>
-  </si>
-  <si>
-    <t>2024 FEB 06 11:38:17</t>
-  </si>
-  <si>
-    <t>2024 FEB 06 13:36:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.3hrs; &amp;Angle=68; </t>
-  </si>
-  <si>
-    <t>2024 FEB 06 15:34:23</t>
-  </si>
-  <si>
-    <t>2024 FEB 06 17:32:28</t>
-  </si>
-  <si>
-    <t>2024 FEB 06 19:30:29</t>
-  </si>
-  <si>
-    <t>2024 FEB 06 21:28:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.3hrs; &amp;Angle=67; </t>
-  </si>
-  <si>
-    <t>2024 FEB 06 23:26:22</t>
-  </si>
-  <si>
-    <t>2024 FEB 07 01:24:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.2hrs; &amp;Angle=67; </t>
-  </si>
-  <si>
-    <t>2024 FEB 07 03:22:25</t>
-  </si>
-  <si>
-    <t>2024 FEB 07 05:20:28</t>
-  </si>
-  <si>
-    <t>2024 FEB 07 07:18:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.2hrs; &amp;Angle=66; </t>
-  </si>
-  <si>
-    <t>2024 FEB 07 09:16:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ARSIA MONS; </t>
-  </si>
-  <si>
-    <t>2024 FEB 07 11:14:24</t>
-  </si>
-  <si>
-    <t>2024 FEB 07 13:12:23</t>
-  </si>
-  <si>
-    <t>2024 FEB 07 15:10:25</t>
-  </si>
-  <si>
-    <t>2024 FEB 07 17:08:29</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #2</t>
-  </si>
-  <si>
-    <t>2024 FEB 07 19:06:30</t>
-  </si>
-  <si>
-    <t>2024 FEB 07 21:04:27</t>
-  </si>
-  <si>
-    <t>2024 FEB 07 23:02:22</t>
-  </si>
-  <si>
-    <t>2024 FEB 08 01:00:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.1hrs; &amp;Angle=64; </t>
-  </si>
-  <si>
-    <t>2024 FEB 08 02:58:20</t>
-  </si>
-  <si>
-    <t>2024 FEB 08 04:56:22</t>
-  </si>
-  <si>
-    <t>2024 FEB 08 06:54:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;grazingMatch:INSIGHT; &amp;grazingMatch:CURIOSITY; </t>
-  </si>
-  <si>
-    <t>2024 FEB 08 08:52:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.1hrs; &amp;Angle=63; </t>
-  </si>
-  <si>
-    <t>H2O CO 3SUBD #2</t>
-  </si>
-  <si>
-    <t>2024 FEB 08 10:50:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.0hrs; &amp;Angle=63; </t>
-  </si>
-  <si>
-    <t>2024 FEB 08 12:48:13</t>
-  </si>
-  <si>
-    <t>2024 FEB 08 14:46:13</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O CO #15</t>
-  </si>
-  <si>
-    <t>2024 FEB 08 16:44:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;egressMatch:VERNAL CRATER; </t>
-  </si>
-  <si>
-    <t>2024 FEB 08 18:42:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.0hrs; &amp;Angle=62; </t>
-  </si>
-  <si>
-    <t>CO Fullscan Fast #2</t>
-  </si>
-  <si>
-    <t>2024 FEB 08 20:40:14</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #24</t>
-  </si>
-  <si>
-    <t>2024 FEB 08 22:38:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;ingressMatch:SOUTH THAUMASIA; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2024 FEB 09 00:36:05</t>
-  </si>
-  <si>
-    <t>2024 FEB 09 02:34:04</t>
-  </si>
-  <si>
-    <t>uvisOnlyNightside</t>
-  </si>
-  <si>
-    <t>2024 FEB 09 04:32:05</t>
-  </si>
-  <si>
-    <t>2024 FEB 09 06:30:05</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #12</t>
-  </si>
-  <si>
-    <t>2024 FEB 09 08:28:04</t>
-  </si>
-  <si>
-    <t>2024 FEB 09 10:26:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.9hrs; &amp;Angle=60; </t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O #11</t>
-  </si>
-  <si>
-    <t>2024 FEB 09 12:23:55</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O #12</t>
-  </si>
-  <si>
-    <t>2024 FEB 09 14:21:53</t>
-  </si>
-  <si>
-    <t>2024 FEB 09 16:19:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.8hrs; &amp;Angle=60; </t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #19</t>
-  </si>
-  <si>
-    <t>2024 FEB 09 18:17:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.8hrs; &amp;Angle=59; </t>
-  </si>
-  <si>
-    <t>2024 FEB 09 20:15:54</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 CO #28</t>
-  </si>
-  <si>
-    <t>2024 FEB 09 22:13:49</t>
-  </si>
-  <si>
-    <t>2024 FEB 10 00:11:43</t>
-  </si>
-  <si>
-    <t>2024 FEB 10 02:09:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;egressMatch:OLYMPUS MONS; </t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #42</t>
-  </si>
-  <si>
-    <t>2024 FEB 10 04:07:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.8hrs; &amp;Angle=58; </t>
-  </si>
-  <si>
-    <t>Nominal 4SUBD 01</t>
-  </si>
-  <si>
-    <t>2024 FEB 10 06:05:39</t>
-  </si>
-  <si>
-    <t>2024 FEB 10 08:03:38</t>
-  </si>
-  <si>
-    <t>2024 FEB 10 10:01:35</t>
-  </si>
-  <si>
-    <t>2024 FEB 10 11:59:29</t>
-  </si>
-  <si>
-    <t>2024 FEB 10 13:57:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;possibleOCM; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2024 FEB 10 15:55:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;possibleOCM; &amp;daysideMatch:CERBERUS FOSSAE; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2024 FEB 10 17:53:25</t>
-  </si>
-  <si>
-    <t>2024 FEB 10 19:51:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.6hrs; &amp;Angle=56; </t>
-  </si>
-  <si>
-    <t>2024 FEB 10 21:49:21</t>
-  </si>
-  <si>
-    <t>2024 FEB 10 23:47:14</t>
-  </si>
-  <si>
-    <t>2024 FEB 11 01:45:10</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #54</t>
-  </si>
-  <si>
-    <t>2024 FEB 11 03:43:08</t>
-  </si>
-  <si>
-    <t>2024 FEB 11 05:41:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.6hrs; &amp;Angle=55; </t>
-  </si>
-  <si>
-    <t>2024 FEB 11 07:39:07</t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO #6</t>
-  </si>
-  <si>
-    <t>2024 FEB 11 09:37:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS FOSSAE; &amp;daysideMatch:SOUTH THAUMASIA; </t>
-  </si>
-  <si>
-    <t>2024 FEB 11 11:34:59</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O #14</t>
-  </si>
-  <si>
-    <t>2024 FEB 11 13:32:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.5hrs; &amp;Angle=54; </t>
-  </si>
-  <si>
-    <t>2024 FEB 11 15:30:51</t>
-  </si>
-  <si>
-    <t>2024 FEB 11 17:28:51</t>
-  </si>
-  <si>
-    <t>H2O CO 2SUBD #1</t>
-  </si>
-  <si>
-    <t>2024 FEB 11 19:26:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:TIANWEN1; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2024 FEB 11 21:24:49</t>
-  </si>
-  <si>
-    <t>2024 FEB 11 23:22:42</t>
-  </si>
-  <si>
-    <t>2024 FEB 12 01:20:36</t>
-  </si>
-  <si>
-    <t>2024 FEB 12 03:18:33</t>
-  </si>
-  <si>
-    <t>2024 FEB 12 05:16:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.4hrs; &amp;Angle=52; </t>
-  </si>
-  <si>
-    <t>2024 FEB 12 07:14:31</t>
-  </si>
-  <si>
-    <t>2024 FEB 12 09:12:29</t>
-  </si>
-  <si>
-    <t>2024 FEB 12 11:10:25</t>
-  </si>
-  <si>
-    <t>2024 FEB 12 13:08:18</t>
-  </si>
-  <si>
-    <t>LNO Occultation Fullscan Fast #2</t>
-  </si>
-  <si>
-    <t>2024 FEB 12 15:06:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.3hrs; &amp;Angle=51; </t>
-  </si>
-  <si>
-    <t>CH4 3SUBD 01</t>
-  </si>
-  <si>
-    <t>2024 FEB 12 17:04:14</t>
-  </si>
-  <si>
-    <t>2024 FEB 12 19:02:14</t>
-  </si>
-  <si>
-    <t>2024 FEB 12 21:00:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;egressMatch:ACIDALIA MUD VOLCANOES BASIN; </t>
-  </si>
-  <si>
-    <t>2024 FEB 12 22:58:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.3hrs; &amp;Angle=50; </t>
-  </si>
-  <si>
-    <t>2024 FEB 13 00:56:00</t>
-  </si>
-  <si>
-    <t>2024 FEB 13 02:53:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;egressMatch:ALBA MONS; </t>
-  </si>
-  <si>
-    <t>2024 FEB 13 04:51:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nomadPhobos; &amp;daysideMatch:MAWRTH VALLIS-ARAM CHAOS; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2024 FEB 13 06:49:53</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 CO #27</t>
-  </si>
-  <si>
-    <t>2024 FEB 13 08:47:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:EAST THAUMASIA; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2024 FEB 13 10:45:48</t>
-  </si>
-  <si>
-    <t>2024 FEB 13 12:43:41</t>
-  </si>
-  <si>
-    <t>2024 FEB 13 14:41:36</t>
-  </si>
-  <si>
-    <t>2024 FEB 13 16:39:34</t>
-  </si>
-  <si>
-    <t>2024 FEB 13 18:37:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.1hrs; &amp;Angle=48; </t>
-  </si>
-  <si>
-    <t>2024 FEB 13 20:35:32</t>
-  </si>
-  <si>
-    <t>2024 FEB 13 22:33:29</t>
-  </si>
-  <si>
-    <t>2024 FEB 14 00:31:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.1hrs; &amp;Angle=47; </t>
-  </si>
-  <si>
-    <t>2024 FEB 14 02:29:16</t>
-  </si>
-  <si>
-    <t>2024 FEB 14 04:27:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.0hrs; &amp;Angle=47; </t>
-  </si>
-  <si>
-    <t>2024 FEB 14 06:25:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.0hrs; &amp;Angle=46; </t>
-  </si>
-  <si>
-    <t>2024 FEB 14 08:23:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:COPRATES RISE; </t>
-  </si>
-  <si>
-    <t>2024 FEB 14 10:21:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS THOLUS; </t>
-  </si>
-  <si>
-    <t>2024 FEB 14 12:19:02</t>
-  </si>
-  <si>
-    <t>2024 FEB 14 14:16:56</t>
-  </si>
-  <si>
-    <t>2024 FEB 14 16:14:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.0hrs; &amp;Angle=45; </t>
-  </si>
-  <si>
-    <t>2024 FEB 14 18:12:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ELYSIUM MONS; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2024 FEB 14 20:10:51</t>
-  </si>
-  <si>
-    <t>2024 FEB 14 22:08:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:UTOPIA; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2024 FEB 15 00:06:42</t>
-  </si>
-  <si>
-    <t>2024 FEB 15 02:04:36</t>
-  </si>
-  <si>
-    <t>2024 FEB 15 04:02:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.9hrs; &amp;Angle=44; </t>
-  </si>
-  <si>
-    <t>2024 FEB 15 06:00:29</t>
-  </si>
-  <si>
-    <t>2024 FEB 15 07:58:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.8hrs; &amp;Angle=43; </t>
-  </si>
-  <si>
-    <t>2024 FEB 15 09:56:25</t>
-  </si>
-  <si>
-    <t>2024 FEB 15 11:54:20</t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO #7</t>
-  </si>
-  <si>
-    <t>2024 FEB 15 13:52:14</t>
-  </si>
-  <si>
-    <t>2024 FEB 15 15:50:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=14.8hrs; &amp;Angle=42; </t>
-  </si>
-  <si>
-    <t>2024 FEB 15 17:48:07</t>
-  </si>
-  <si>
-    <t>2024 FEB 15 19:46:06</t>
-  </si>
-  <si>
-    <t>CO2 Fullscan Fast #5</t>
-  </si>
-  <si>
     <t>2024 FEB 15 21:44:04</t>
   </si>
   <si>
@@ -1654,6 +1669,9 @@
     <t xml:space="preserve">&amp;LST=14.7hrs; &amp;Angle=41; </t>
   </si>
   <si>
+    <t>Surface Ice 3SUBD #3</t>
+  </si>
+  <si>
     <t>2024 FEB 16 01:39:52</t>
   </si>
   <si>
@@ -1672,9 +1690,6 @@
     <t xml:space="preserve">&amp;LST=14.6hrs; &amp;Angle=40; </t>
   </si>
   <si>
-    <t>6SUBD CO2 Dipole #1</t>
-  </si>
-  <si>
     <t>2024 FEB 16 11:29:37</t>
   </si>
   <si>
@@ -1705,7 +1720,7 @@
     <t>2024 FEB 16 23:17:16</t>
   </si>
   <si>
-    <t>Surface Ice 3SUBD #3</t>
+    <t>Nominal 3SUBD 01</t>
   </si>
   <si>
     <t>2024 FEB 17 01:15:09</t>
@@ -2185,10 +2200,10 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -2197,7 +2212,7 @@
         <v>8</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
         <v>18</v>
@@ -2208,16 +2223,16 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>25</v>
-      </c>
-      <c r="M6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2225,19 +2240,19 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
@@ -2246,10 +2261,10 @@
         <v>8</v>
       </c>
       <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
         <v>29</v>
-      </c>
-      <c r="M7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2257,19 +2272,19 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
@@ -2278,10 +2293,10 @@
         <v>8</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2289,10 +2304,10 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2303,13 +2318,13 @@
         <v>8</v>
       </c>
       <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
         <v>35</v>
-      </c>
-      <c r="L10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2320,10 +2335,10 @@
         <v>8</v>
       </c>
       <c r="L11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2334,10 +2349,10 @@
         <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2345,16 +2360,16 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" t="s">
         <v>41</v>
-      </c>
-      <c r="I13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2362,19 +2377,19 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
         <v>6</v>
@@ -2383,10 +2398,10 @@
         <v>8</v>
       </c>
       <c r="L14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2397,10 +2412,10 @@
         <v>8</v>
       </c>
       <c r="L15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2408,19 +2423,19 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
         <v>6</v>
@@ -2429,10 +2444,10 @@
         <v>8</v>
       </c>
       <c r="L16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2440,19 +2455,19 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
@@ -2461,10 +2476,10 @@
         <v>8</v>
       </c>
       <c r="L17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2475,10 +2490,10 @@
         <v>8</v>
       </c>
       <c r="L18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2486,19 +2501,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
@@ -2507,10 +2522,10 @@
         <v>8</v>
       </c>
       <c r="L19" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" t="s">
         <v>58</v>
-      </c>
-      <c r="M19" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2521,10 +2536,10 @@
         <v>8</v>
       </c>
       <c r="L20" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" t="s">
         <v>60</v>
-      </c>
-      <c r="M20" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2532,19 +2547,19 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
         <v>6</v>
@@ -2556,7 +2571,7 @@
         <v>63</v>
       </c>
       <c r="M21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2592,19 +2607,19 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
         <v>6</v>
@@ -2613,10 +2628,10 @@
         <v>8</v>
       </c>
       <c r="L24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2624,10 +2639,10 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G25" t="s">
         <v>6</v>
@@ -2636,10 +2651,10 @@
         <v>8</v>
       </c>
       <c r="L25" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" t="s">
         <v>70</v>
-      </c>
-      <c r="M25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2647,16 +2662,16 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="I26" t="s">
         <v>8</v>
       </c>
       <c r="L26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2664,19 +2679,19 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
         <v>6</v>
@@ -2688,7 +2703,7 @@
         <v>74</v>
       </c>
       <c r="M27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2779,10 +2794,10 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
         <v>82</v>
@@ -2791,10 +2806,10 @@
         <v>8</v>
       </c>
       <c r="L32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2805,10 +2820,10 @@
         <v>8</v>
       </c>
       <c r="L33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2819,10 +2834,10 @@
         <v>8</v>
       </c>
       <c r="L34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2830,22 +2845,22 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I35" t="s">
         <v>8</v>
       </c>
       <c r="L35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2856,10 +2871,10 @@
         <v>8</v>
       </c>
       <c r="L36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2867,22 +2882,22 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I37" t="s">
         <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2893,10 +2908,10 @@
         <v>8</v>
       </c>
       <c r="L38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2907,10 +2922,10 @@
         <v>8</v>
       </c>
       <c r="L39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2921,10 +2936,10 @@
         <v>8</v>
       </c>
       <c r="L40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2932,13 +2947,13 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I41" t="s">
         <v>8</v>
@@ -2947,7 +2962,7 @@
         <v>104</v>
       </c>
       <c r="M41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2969,13 +2984,13 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I43" t="s">
         <v>8</v>
@@ -2992,13 +3007,13 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" t="s">
         <v>109</v>
-      </c>
-      <c r="I44" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" t="s">
-        <v>110</v>
       </c>
       <c r="M44" t="s">
         <v>106</v>
@@ -3009,19 +3024,19 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I45" t="s">
         <v>8</v>
       </c>
       <c r="L45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M45" t="s">
         <v>106</v>
@@ -3035,10 +3050,10 @@
         <v>8</v>
       </c>
       <c r="L46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3046,22 +3061,22 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I47" t="s">
         <v>8</v>
       </c>
       <c r="L47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3072,10 +3087,10 @@
         <v>8</v>
       </c>
       <c r="L48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3086,13 +3101,13 @@
         <v>8</v>
       </c>
       <c r="K49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L49" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3103,10 +3118,10 @@
         <v>8</v>
       </c>
       <c r="L50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3114,16 +3129,16 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="I51" t="s">
         <v>8</v>
       </c>
       <c r="L51" t="s">
+        <v>121</v>
+      </c>
+      <c r="M51" t="s">
         <v>122</v>
-      </c>
-      <c r="M51" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3134,10 +3149,10 @@
         <v>8</v>
       </c>
       <c r="L52" t="s">
+        <v>123</v>
+      </c>
+      <c r="M52" t="s">
         <v>124</v>
-      </c>
-      <c r="M52" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3148,10 +3163,10 @@
         <v>8</v>
       </c>
       <c r="L53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3162,10 +3177,10 @@
         <v>8</v>
       </c>
       <c r="L54" t="s">
+        <v>126</v>
+      </c>
+      <c r="M54" t="s">
         <v>127</v>
-      </c>
-      <c r="M54" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3176,10 +3191,10 @@
         <v>8</v>
       </c>
       <c r="L55" t="s">
+        <v>128</v>
+      </c>
+      <c r="M55" t="s">
         <v>129</v>
-      </c>
-      <c r="M55" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3190,10 +3205,10 @@
         <v>8</v>
       </c>
       <c r="L56" t="s">
+        <v>130</v>
+      </c>
+      <c r="M56" t="s">
         <v>131</v>
-      </c>
-      <c r="M56" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3204,10 +3219,10 @@
         <v>8</v>
       </c>
       <c r="L57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3218,10 +3233,10 @@
         <v>8</v>
       </c>
       <c r="L58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3232,10 +3247,10 @@
         <v>8</v>
       </c>
       <c r="L59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3246,10 +3261,10 @@
         <v>8</v>
       </c>
       <c r="L60" t="s">
+        <v>135</v>
+      </c>
+      <c r="M60" t="s">
         <v>136</v>
-      </c>
-      <c r="M60" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3260,10 +3275,10 @@
         <v>8</v>
       </c>
       <c r="L61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3274,10 +3289,10 @@
         <v>8</v>
       </c>
       <c r="L62" t="s">
+        <v>138</v>
+      </c>
+      <c r="M62" t="s">
         <v>139</v>
-      </c>
-      <c r="M62" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3285,16 +3300,16 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
+        <v>140</v>
+      </c>
+      <c r="I63" t="s">
+        <v>8</v>
+      </c>
+      <c r="L63" t="s">
         <v>141</v>
       </c>
-      <c r="I63" t="s">
-        <v>8</v>
-      </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>142</v>
-      </c>
-      <c r="M63" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3305,10 +3320,10 @@
         <v>8</v>
       </c>
       <c r="L64" t="s">
+        <v>143</v>
+      </c>
+      <c r="M64" t="s">
         <v>144</v>
-      </c>
-      <c r="M64" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3319,10 +3334,10 @@
         <v>8</v>
       </c>
       <c r="L65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3333,10 +3348,10 @@
         <v>8</v>
       </c>
       <c r="L66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3344,10 +3359,10 @@
         <v>14</v>
       </c>
       <c r="L67" t="s">
+        <v>147</v>
+      </c>
+      <c r="M67" t="s">
         <v>148</v>
-      </c>
-      <c r="M67" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3358,10 +3373,10 @@
         <v>8</v>
       </c>
       <c r="L68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3372,10 +3387,10 @@
         <v>8</v>
       </c>
       <c r="L69" t="s">
+        <v>150</v>
+      </c>
+      <c r="M69" t="s">
         <v>151</v>
-      </c>
-      <c r="M69" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3386,10 +3401,10 @@
         <v>8</v>
       </c>
       <c r="L70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3400,10 +3415,10 @@
         <v>8</v>
       </c>
       <c r="L71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3414,10 +3429,10 @@
         <v>8</v>
       </c>
       <c r="L72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3425,10 +3440,10 @@
         <v>14</v>
       </c>
       <c r="L73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3436,10 +3451,10 @@
         <v>14</v>
       </c>
       <c r="L74" t="s">
+        <v>156</v>
+      </c>
+      <c r="M74" t="s">
         <v>157</v>
-      </c>
-      <c r="M74" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3447,16 +3462,16 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="I75" t="s">
         <v>8</v>
       </c>
       <c r="L75" t="s">
+        <v>158</v>
+      </c>
+      <c r="M75" t="s">
         <v>159</v>
-      </c>
-      <c r="M75" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3467,10 +3482,10 @@
         <v>8</v>
       </c>
       <c r="L76" t="s">
+        <v>160</v>
+      </c>
+      <c r="M76" t="s">
         <v>161</v>
-      </c>
-      <c r="M76" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3481,10 +3496,10 @@
         <v>8</v>
       </c>
       <c r="L77" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3495,10 +3510,10 @@
         <v>8</v>
       </c>
       <c r="L78" t="s">
+        <v>163</v>
+      </c>
+      <c r="M78" t="s">
         <v>164</v>
-      </c>
-      <c r="M78" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3509,10 +3524,10 @@
         <v>8</v>
       </c>
       <c r="L79" t="s">
+        <v>165</v>
+      </c>
+      <c r="M79" t="s">
         <v>166</v>
-      </c>
-      <c r="M79" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3523,10 +3538,10 @@
         <v>8</v>
       </c>
       <c r="L80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3537,10 +3552,10 @@
         <v>8</v>
       </c>
       <c r="L81" t="s">
+        <v>168</v>
+      </c>
+      <c r="M81" t="s">
         <v>169</v>
-      </c>
-      <c r="M81" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -3551,10 +3566,10 @@
         <v>8</v>
       </c>
       <c r="L82" t="s">
+        <v>170</v>
+      </c>
+      <c r="M82" t="s">
         <v>171</v>
-      </c>
-      <c r="M82" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3565,10 +3580,10 @@
         <v>8</v>
       </c>
       <c r="L83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3579,10 +3594,10 @@
         <v>8</v>
       </c>
       <c r="L84" t="s">
+        <v>173</v>
+      </c>
+      <c r="M84" t="s">
         <v>174</v>
-      </c>
-      <c r="M84" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3593,10 +3608,10 @@
         <v>8</v>
       </c>
       <c r="L85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3604,10 +3619,10 @@
         <v>14</v>
       </c>
       <c r="L86" t="s">
+        <v>176</v>
+      </c>
+      <c r="M86" t="s">
         <v>177</v>
-      </c>
-      <c r="M86" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3615,10 +3630,10 @@
         <v>14</v>
       </c>
       <c r="L87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M87" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3629,10 +3644,10 @@
         <v>8</v>
       </c>
       <c r="L88" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3643,10 +3658,10 @@
         <v>8</v>
       </c>
       <c r="L89" t="s">
+        <v>180</v>
+      </c>
+      <c r="M89" t="s">
         <v>181</v>
-      </c>
-      <c r="M89" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3657,10 +3672,10 @@
         <v>8</v>
       </c>
       <c r="L90" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3671,10 +3686,10 @@
         <v>8</v>
       </c>
       <c r="L91" t="s">
+        <v>183</v>
+      </c>
+      <c r="M91" t="s">
         <v>184</v>
-      </c>
-      <c r="M91" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3685,10 +3700,10 @@
         <v>8</v>
       </c>
       <c r="L92" t="s">
+        <v>185</v>
+      </c>
+      <c r="M92" t="s">
         <v>186</v>
-      </c>
-      <c r="M92" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3699,10 +3714,10 @@
         <v>8</v>
       </c>
       <c r="L93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3713,10 +3728,10 @@
         <v>8</v>
       </c>
       <c r="L94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M94" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3727,10 +3742,10 @@
         <v>8</v>
       </c>
       <c r="L95" t="s">
+        <v>189</v>
+      </c>
+      <c r="M95" t="s">
         <v>190</v>
-      </c>
-      <c r="M95" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3741,10 +3756,10 @@
         <v>8</v>
       </c>
       <c r="L96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M96" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -3755,10 +3770,10 @@
         <v>8</v>
       </c>
       <c r="L97" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3769,10 +3784,10 @@
         <v>8</v>
       </c>
       <c r="L98" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M98" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -3783,10 +3798,10 @@
         <v>8</v>
       </c>
       <c r="L99" t="s">
+        <v>194</v>
+      </c>
+      <c r="M99" t="s">
         <v>195</v>
-      </c>
-      <c r="M99" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -3797,10 +3812,10 @@
         <v>8</v>
       </c>
       <c r="L100" t="s">
+        <v>196</v>
+      </c>
+      <c r="M100" t="s">
         <v>197</v>
-      </c>
-      <c r="M100" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -3811,10 +3826,10 @@
         <v>8</v>
       </c>
       <c r="L101" t="s">
+        <v>198</v>
+      </c>
+      <c r="M101" t="s">
         <v>199</v>
-      </c>
-      <c r="M101" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -3825,10 +3840,10 @@
         <v>8</v>
       </c>
       <c r="L102" t="s">
+        <v>200</v>
+      </c>
+      <c r="M102" t="s">
         <v>201</v>
-      </c>
-      <c r="M102" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -3839,10 +3854,10 @@
         <v>8</v>
       </c>
       <c r="L103" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M103" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -3853,10 +3868,10 @@
         <v>8</v>
       </c>
       <c r="L104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -3867,10 +3882,10 @@
         <v>8</v>
       </c>
       <c r="L105" t="s">
+        <v>204</v>
+      </c>
+      <c r="M105" t="s">
         <v>205</v>
-      </c>
-      <c r="M105" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -3881,10 +3896,10 @@
         <v>8</v>
       </c>
       <c r="L106" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M106" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -3895,10 +3910,10 @@
         <v>8</v>
       </c>
       <c r="L107" t="s">
+        <v>207</v>
+      </c>
+      <c r="M107" t="s">
         <v>208</v>
-      </c>
-      <c r="M107" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -3909,10 +3924,10 @@
         <v>8</v>
       </c>
       <c r="L108" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M108" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -3923,10 +3938,10 @@
         <v>8</v>
       </c>
       <c r="L109" t="s">
+        <v>210</v>
+      </c>
+      <c r="M109" t="s">
         <v>211</v>
-      </c>
-      <c r="M109" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -3934,10 +3949,10 @@
         <v>14</v>
       </c>
       <c r="L110" t="s">
+        <v>212</v>
+      </c>
+      <c r="M110" t="s">
         <v>213</v>
-      </c>
-      <c r="M110" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -3948,13 +3963,13 @@
         <v>8</v>
       </c>
       <c r="K111" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L111" t="s">
+        <v>214</v>
+      </c>
+      <c r="M111" t="s">
         <v>215</v>
-      </c>
-      <c r="M111" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -3965,10 +3980,10 @@
         <v>8</v>
       </c>
       <c r="L112" t="s">
+        <v>216</v>
+      </c>
+      <c r="M112" t="s">
         <v>217</v>
-      </c>
-      <c r="M112" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -3979,10 +3994,10 @@
         <v>8</v>
       </c>
       <c r="L113" t="s">
+        <v>218</v>
+      </c>
+      <c r="M113" t="s">
         <v>219</v>
-      </c>
-      <c r="M113" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -3993,10 +4008,10 @@
         <v>8</v>
       </c>
       <c r="L114" t="s">
+        <v>220</v>
+      </c>
+      <c r="M114" t="s">
         <v>221</v>
-      </c>
-      <c r="M114" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -4007,10 +4022,10 @@
         <v>8</v>
       </c>
       <c r="L115" t="s">
+        <v>222</v>
+      </c>
+      <c r="M115" t="s">
         <v>223</v>
-      </c>
-      <c r="M115" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -4021,7 +4036,7 @@
         <v>8</v>
       </c>
       <c r="L116" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M116" t="s">
         <v>20</v>
@@ -4035,10 +4050,10 @@
         <v>8</v>
       </c>
       <c r="L117" t="s">
+        <v>225</v>
+      </c>
+      <c r="M117" t="s">
         <v>226</v>
-      </c>
-      <c r="M117" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -4049,10 +4064,10 @@
         <v>8</v>
       </c>
       <c r="L118" t="s">
+        <v>227</v>
+      </c>
+      <c r="M118" t="s">
         <v>228</v>
-      </c>
-      <c r="M118" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -4063,10 +4078,10 @@
         <v>8</v>
       </c>
       <c r="L119" t="s">
+        <v>229</v>
+      </c>
+      <c r="M119" t="s">
         <v>230</v>
-      </c>
-      <c r="M119" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -4077,10 +4092,10 @@
         <v>8</v>
       </c>
       <c r="L120" t="s">
+        <v>231</v>
+      </c>
+      <c r="M120" t="s">
         <v>232</v>
-      </c>
-      <c r="M120" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -4091,10 +4106,10 @@
         <v>8</v>
       </c>
       <c r="L121" t="s">
+        <v>233</v>
+      </c>
+      <c r="M121" t="s">
         <v>234</v>
-      </c>
-      <c r="M121" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -4105,10 +4120,10 @@
         <v>8</v>
       </c>
       <c r="L122" t="s">
+        <v>235</v>
+      </c>
+      <c r="M122" t="s">
         <v>236</v>
-      </c>
-      <c r="M122" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -4119,10 +4134,10 @@
         <v>8</v>
       </c>
       <c r="L123" t="s">
+        <v>237</v>
+      </c>
+      <c r="M123" t="s">
         <v>238</v>
-      </c>
-      <c r="M123" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -4133,10 +4148,10 @@
         <v>8</v>
       </c>
       <c r="L124" t="s">
+        <v>239</v>
+      </c>
+      <c r="M124" t="s">
         <v>240</v>
-      </c>
-      <c r="M124" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -4147,10 +4162,10 @@
         <v>8</v>
       </c>
       <c r="L125" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -4161,10 +4176,10 @@
         <v>8</v>
       </c>
       <c r="L126" t="s">
+        <v>242</v>
+      </c>
+      <c r="M126" t="s">
         <v>243</v>
-      </c>
-      <c r="M126" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -4175,10 +4190,10 @@
         <v>8</v>
       </c>
       <c r="L127" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M127" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -4189,10 +4204,10 @@
         <v>8</v>
       </c>
       <c r="L128" t="s">
+        <v>245</v>
+      </c>
+      <c r="M128" t="s">
         <v>246</v>
-      </c>
-      <c r="M128" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -4203,10 +4218,10 @@
         <v>8</v>
       </c>
       <c r="L129" t="s">
+        <v>247</v>
+      </c>
+      <c r="M129" t="s">
         <v>248</v>
-      </c>
-      <c r="M129" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -4217,10 +4232,10 @@
         <v>8</v>
       </c>
       <c r="L130" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M130" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -4231,10 +4246,10 @@
         <v>8</v>
       </c>
       <c r="L131" t="s">
+        <v>250</v>
+      </c>
+      <c r="M131" t="s">
         <v>251</v>
-      </c>
-      <c r="M131" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -4242,10 +4257,10 @@
         <v>14</v>
       </c>
       <c r="L132" t="s">
+        <v>252</v>
+      </c>
+      <c r="M132" t="s">
         <v>253</v>
-      </c>
-      <c r="M132" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -4256,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="L133" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -4270,10 +4285,10 @@
         <v>8</v>
       </c>
       <c r="L134" t="s">
+        <v>255</v>
+      </c>
+      <c r="M134" t="s">
         <v>256</v>
-      </c>
-      <c r="M134" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -4284,10 +4299,10 @@
         <v>8</v>
       </c>
       <c r="L135" t="s">
+        <v>257</v>
+      </c>
+      <c r="M135" t="s">
         <v>258</v>
-      </c>
-      <c r="M135" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -4298,10 +4313,10 @@
         <v>8</v>
       </c>
       <c r="L136" t="s">
+        <v>259</v>
+      </c>
+      <c r="M136" t="s">
         <v>260</v>
-      </c>
-      <c r="M136" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -4312,10 +4327,10 @@
         <v>8</v>
       </c>
       <c r="L137" t="s">
+        <v>261</v>
+      </c>
+      <c r="M137" t="s">
         <v>262</v>
-      </c>
-      <c r="M137" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -4326,10 +4341,10 @@
         <v>8</v>
       </c>
       <c r="L138" t="s">
+        <v>263</v>
+      </c>
+      <c r="M138" t="s">
         <v>264</v>
-      </c>
-      <c r="M138" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -4340,10 +4355,10 @@
         <v>8</v>
       </c>
       <c r="L139" t="s">
+        <v>265</v>
+      </c>
+      <c r="M139" t="s">
         <v>266</v>
-      </c>
-      <c r="M139" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -4354,10 +4369,10 @@
         <v>8</v>
       </c>
       <c r="L140" t="s">
+        <v>267</v>
+      </c>
+      <c r="M140" t="s">
         <v>268</v>
-      </c>
-      <c r="M140" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -4368,10 +4383,10 @@
         <v>8</v>
       </c>
       <c r="L141" t="s">
+        <v>269</v>
+      </c>
+      <c r="M141" t="s">
         <v>270</v>
-      </c>
-      <c r="M141" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -4382,10 +4397,10 @@
         <v>8</v>
       </c>
       <c r="L142" t="s">
+        <v>271</v>
+      </c>
+      <c r="M142" t="s">
         <v>272</v>
-      </c>
-      <c r="M142" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -4396,10 +4411,10 @@
         <v>8</v>
       </c>
       <c r="L143" t="s">
+        <v>273</v>
+      </c>
+      <c r="M143" t="s">
         <v>274</v>
-      </c>
-      <c r="M143" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -4407,10 +4422,10 @@
         <v>14</v>
       </c>
       <c r="L144" t="s">
+        <v>275</v>
+      </c>
+      <c r="M144" t="s">
         <v>276</v>
-      </c>
-      <c r="M144" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -4421,10 +4436,10 @@
         <v>8</v>
       </c>
       <c r="L145" t="s">
+        <v>277</v>
+      </c>
+      <c r="M145" t="s">
         <v>278</v>
-      </c>
-      <c r="M145" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -4435,10 +4450,10 @@
         <v>8</v>
       </c>
       <c r="L146" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M146" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -4449,10 +4464,10 @@
         <v>8</v>
       </c>
       <c r="L147" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M147" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -4463,10 +4478,10 @@
         <v>8</v>
       </c>
       <c r="L148" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M148" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -4477,10 +4492,10 @@
         <v>8</v>
       </c>
       <c r="L149" t="s">
+        <v>282</v>
+      </c>
+      <c r="M149" t="s">
         <v>283</v>
-      </c>
-      <c r="M149" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -4491,10 +4506,10 @@
         <v>8</v>
       </c>
       <c r="L150" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M150" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -4505,10 +4520,10 @@
         <v>8</v>
       </c>
       <c r="L151" t="s">
+        <v>285</v>
+      </c>
+      <c r="M151" t="s">
         <v>286</v>
-      </c>
-      <c r="M151" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -4519,10 +4534,10 @@
         <v>8</v>
       </c>
       <c r="L152" t="s">
+        <v>287</v>
+      </c>
+      <c r="M152" t="s">
         <v>288</v>
-      </c>
-      <c r="M152" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -4533,10 +4548,10 @@
         <v>8</v>
       </c>
       <c r="L153" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M153" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -4547,10 +4562,10 @@
         <v>8</v>
       </c>
       <c r="L154" t="s">
+        <v>290</v>
+      </c>
+      <c r="M154" t="s">
         <v>291</v>
-      </c>
-      <c r="M154" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -4561,10 +4576,10 @@
         <v>8</v>
       </c>
       <c r="L155" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M155" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -4575,10 +4590,10 @@
         <v>8</v>
       </c>
       <c r="L156" t="s">
+        <v>293</v>
+      </c>
+      <c r="M156" t="s">
         <v>294</v>
-      </c>
-      <c r="M156" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -4589,10 +4604,10 @@
         <v>8</v>
       </c>
       <c r="L157" t="s">
+        <v>295</v>
+      </c>
+      <c r="M157" t="s">
         <v>296</v>
-      </c>
-      <c r="M157" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -4603,10 +4618,10 @@
         <v>8</v>
       </c>
       <c r="L158" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M158" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -4617,10 +4632,10 @@
         <v>8</v>
       </c>
       <c r="L159" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M159" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -4631,10 +4646,10 @@
         <v>8</v>
       </c>
       <c r="L160" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M160" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -4645,10 +4660,10 @@
         <v>8</v>
       </c>
       <c r="L161" t="s">
+        <v>300</v>
+      </c>
+      <c r="M161" t="s">
         <v>301</v>
-      </c>
-      <c r="M161" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -4656,10 +4671,10 @@
         <v>14</v>
       </c>
       <c r="L162" t="s">
+        <v>302</v>
+      </c>
+      <c r="M162" t="s">
         <v>303</v>
-      </c>
-      <c r="M162" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -4670,10 +4685,10 @@
         <v>8</v>
       </c>
       <c r="L163" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M163" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -4684,10 +4699,10 @@
         <v>8</v>
       </c>
       <c r="L164" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M164" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -4698,10 +4713,10 @@
         <v>8</v>
       </c>
       <c r="L165" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M165" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -4712,10 +4727,10 @@
         <v>8</v>
       </c>
       <c r="L166" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M166" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -4726,10 +4741,10 @@
         <v>8</v>
       </c>
       <c r="L167" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M167" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -4740,10 +4755,10 @@
         <v>8</v>
       </c>
       <c r="L168" t="s">
+        <v>309</v>
+      </c>
+      <c r="M168" t="s">
         <v>310</v>
-      </c>
-      <c r="M168" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -4754,10 +4769,10 @@
         <v>8</v>
       </c>
       <c r="L169" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M169" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -4768,10 +4783,10 @@
         <v>8</v>
       </c>
       <c r="L170" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M170" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -4782,10 +4797,10 @@
         <v>8</v>
       </c>
       <c r="L171" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M171" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -4793,10 +4808,10 @@
         <v>14</v>
       </c>
       <c r="L172" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M172" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -4807,10 +4822,10 @@
         <v>8</v>
       </c>
       <c r="L173" t="s">
+        <v>315</v>
+      </c>
+      <c r="M173" t="s">
         <v>316</v>
-      </c>
-      <c r="M173" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -4821,10 +4836,10 @@
         <v>8</v>
       </c>
       <c r="L174" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M174" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -4832,10 +4847,10 @@
         <v>14</v>
       </c>
       <c r="L175" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M175" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -4843,10 +4858,10 @@
         <v>14</v>
       </c>
       <c r="L176" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M176" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -4857,10 +4872,10 @@
         <v>8</v>
       </c>
       <c r="L177" t="s">
+        <v>320</v>
+      </c>
+      <c r="M177" t="s">
         <v>321</v>
-      </c>
-      <c r="M177" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -4871,10 +4886,10 @@
         <v>8</v>
       </c>
       <c r="L178" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M178" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -4882,10 +4897,10 @@
         <v>14</v>
       </c>
       <c r="L179" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M179" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -4893,10 +4908,10 @@
         <v>14</v>
       </c>
       <c r="L180" t="s">
+        <v>324</v>
+      </c>
+      <c r="M180" t="s">
         <v>325</v>
-      </c>
-      <c r="M180" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -4907,10 +4922,10 @@
         <v>8</v>
       </c>
       <c r="L181" t="s">
+        <v>326</v>
+      </c>
+      <c r="M181" t="s">
         <v>327</v>
-      </c>
-      <c r="M181" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -4921,10 +4936,10 @@
         <v>8</v>
       </c>
       <c r="L182" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M182" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -4935,10 +4950,10 @@
         <v>8</v>
       </c>
       <c r="L183" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M183" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -4949,10 +4964,10 @@
         <v>8</v>
       </c>
       <c r="L184" t="s">
+        <v>330</v>
+      </c>
+      <c r="M184" t="s">
         <v>331</v>
-      </c>
-      <c r="M184" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -4963,10 +4978,10 @@
         <v>8</v>
       </c>
       <c r="L185" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M185" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -4977,10 +4992,10 @@
         <v>8</v>
       </c>
       <c r="L186" t="s">
+        <v>333</v>
+      </c>
+      <c r="M186" t="s">
         <v>334</v>
-      </c>
-      <c r="M186" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -4991,10 +5006,10 @@
         <v>8</v>
       </c>
       <c r="L187" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M187" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -5005,10 +5020,10 @@
         <v>8</v>
       </c>
       <c r="L188" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M188" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -5016,10 +5031,10 @@
         <v>14</v>
       </c>
       <c r="L189" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M189" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -5030,10 +5045,10 @@
         <v>8</v>
       </c>
       <c r="L190" t="s">
+        <v>338</v>
+      </c>
+      <c r="M190" t="s">
         <v>339</v>
-      </c>
-      <c r="M190" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -5044,10 +5059,10 @@
         <v>8</v>
       </c>
       <c r="L191" t="s">
+        <v>340</v>
+      </c>
+      <c r="M191" t="s">
         <v>341</v>
-      </c>
-      <c r="M191" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -5058,10 +5073,10 @@
         <v>8</v>
       </c>
       <c r="L192" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M192" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -5072,10 +5087,10 @@
         <v>8</v>
       </c>
       <c r="L193" t="s">
+        <v>343</v>
+      </c>
+      <c r="M193" t="s">
         <v>344</v>
-      </c>
-      <c r="M193" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -5086,10 +5101,10 @@
         <v>8</v>
       </c>
       <c r="L194" t="s">
+        <v>345</v>
+      </c>
+      <c r="M194" t="s">
         <v>346</v>
-      </c>
-      <c r="M194" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -5100,10 +5115,10 @@
         <v>8</v>
       </c>
       <c r="L195" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M195" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -5114,10 +5129,10 @@
         <v>8</v>
       </c>
       <c r="L196" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M196" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -5128,10 +5143,10 @@
         <v>8</v>
       </c>
       <c r="L197" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M197" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -5142,7 +5157,7 @@
         <v>8</v>
       </c>
       <c r="L198" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M198" t="s">
         <v>86</v>
@@ -5156,10 +5171,10 @@
         <v>8</v>
       </c>
       <c r="L199" t="s">
+        <v>351</v>
+      </c>
+      <c r="M199" t="s">
         <v>352</v>
-      </c>
-      <c r="M199" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -5170,10 +5185,10 @@
         <v>8</v>
       </c>
       <c r="L200" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M200" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -5184,10 +5199,10 @@
         <v>8</v>
       </c>
       <c r="L201" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M201" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -5198,10 +5213,10 @@
         <v>8</v>
       </c>
       <c r="L202" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M202" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -5212,10 +5227,10 @@
         <v>8</v>
       </c>
       <c r="L203" t="s">
+        <v>356</v>
+      </c>
+      <c r="M203" t="s">
         <v>357</v>
-      </c>
-      <c r="M203" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -5226,10 +5241,10 @@
         <v>8</v>
       </c>
       <c r="L204" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M204" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -5240,10 +5255,10 @@
         <v>8</v>
       </c>
       <c r="L205" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M205" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -5254,10 +5269,10 @@
         <v>8</v>
       </c>
       <c r="L206" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M206" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -5265,10 +5280,10 @@
         <v>14</v>
       </c>
       <c r="L207" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M207" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -5279,10 +5294,10 @@
         <v>8</v>
       </c>
       <c r="L208" t="s">
+        <v>362</v>
+      </c>
+      <c r="M208" t="s">
         <v>363</v>
-      </c>
-      <c r="M208" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -5293,10 +5308,10 @@
         <v>8</v>
       </c>
       <c r="L209" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M209" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -5307,10 +5322,10 @@
         <v>8</v>
       </c>
       <c r="L210" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M210" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -5321,10 +5336,10 @@
         <v>8</v>
       </c>
       <c r="L211" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M211" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -5335,10 +5350,10 @@
         <v>8</v>
       </c>
       <c r="L212" t="s">
+        <v>367</v>
+      </c>
+      <c r="M212" t="s">
         <v>368</v>
-      </c>
-      <c r="M212" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -5349,10 +5364,10 @@
         <v>8</v>
       </c>
       <c r="L213" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M213" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -5363,10 +5378,10 @@
         <v>8</v>
       </c>
       <c r="L214" t="s">
+        <v>370</v>
+      </c>
+      <c r="M214" t="s">
         <v>371</v>
-      </c>
-      <c r="M214" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -5377,10 +5392,10 @@
         <v>8</v>
       </c>
       <c r="L215" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M215" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -5391,10 +5406,10 @@
         <v>8</v>
       </c>
       <c r="L216" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M216" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -5402,22 +5417,22 @@
         <v>5</v>
       </c>
       <c r="B217" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C217" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="D217" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I217" t="s">
         <v>8</v>
       </c>
       <c r="L217" t="s">
+        <v>374</v>
+      </c>
+      <c r="M217" t="s">
         <v>375</v>
-      </c>
-      <c r="M217" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -5428,10 +5443,10 @@
         <v>8</v>
       </c>
       <c r="L218" t="s">
+        <v>376</v>
+      </c>
+      <c r="M218" t="s">
         <v>377</v>
-      </c>
-      <c r="M218" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -5439,7 +5454,7 @@
         <v>3</v>
       </c>
       <c r="H219" t="s">
-        <v>24</v>
+        <v>378</v>
       </c>
       <c r="I219" t="s">
         <v>8</v>
@@ -5448,7 +5463,7 @@
         <v>379</v>
       </c>
       <c r="M219" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -5462,7 +5477,7 @@
         <v>380</v>
       </c>
       <c r="M220" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -5470,13 +5485,13 @@
         <v>5</v>
       </c>
       <c r="B221" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C221" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D221" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I221" t="s">
         <v>8</v>
@@ -5485,7 +5500,7 @@
         <v>381</v>
       </c>
       <c r="M221" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -5499,7 +5514,7 @@
         <v>382</v>
       </c>
       <c r="M222" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -5507,22 +5522,22 @@
         <v>5</v>
       </c>
       <c r="B223" t="s">
+        <v>26</v>
+      </c>
+      <c r="C223" t="s">
+        <v>26</v>
+      </c>
+      <c r="D223" t="s">
+        <v>94</v>
+      </c>
+      <c r="I223" t="s">
+        <v>8</v>
+      </c>
+      <c r="L223" t="s">
         <v>383</v>
       </c>
-      <c r="C223" t="s">
-        <v>383</v>
-      </c>
-      <c r="D223" t="s">
-        <v>93</v>
-      </c>
-      <c r="I223" t="s">
-        <v>8</v>
-      </c>
-      <c r="L223" t="s">
-        <v>384</v>
-      </c>
       <c r="M223" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -5530,13 +5545,13 @@
         <v>5</v>
       </c>
       <c r="B224" t="s">
-        <v>32</v>
+        <v>384</v>
       </c>
       <c r="C224" t="s">
-        <v>32</v>
+        <v>384</v>
       </c>
       <c r="D224" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I224" t="s">
         <v>8</v>
@@ -5545,7 +5560,7 @@
         <v>385</v>
       </c>
       <c r="M224" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -5559,7 +5574,7 @@
         <v>386</v>
       </c>
       <c r="M225" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -5581,13 +5596,13 @@
         <v>5</v>
       </c>
       <c r="B227" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C227" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D227" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I227" t="s">
         <v>8</v>
@@ -5618,13 +5633,13 @@
         <v>5</v>
       </c>
       <c r="B229" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C229" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D229" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I229" t="s">
         <v>8</v>
@@ -5655,16 +5670,16 @@
         <v>5</v>
       </c>
       <c r="B231" t="s">
-        <v>15</v>
+        <v>395</v>
       </c>
       <c r="C231" t="s">
-        <v>15</v>
+        <v>395</v>
       </c>
       <c r="D231" t="s">
         <v>82</v>
       </c>
       <c r="H231" t="s">
-        <v>395</v>
+        <v>39</v>
       </c>
       <c r="I231" t="s">
         <v>8</v>
@@ -5681,10 +5696,10 @@
         <v>5</v>
       </c>
       <c r="B232" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C232" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="D232" t="s">
         <v>82</v>
@@ -5718,19 +5733,19 @@
         <v>1</v>
       </c>
       <c r="B234" t="s">
-        <v>400</v>
+        <v>52</v>
       </c>
       <c r="C234" t="s">
-        <v>400</v>
+        <v>52</v>
       </c>
       <c r="D234" t="s">
         <v>3</v>
       </c>
       <c r="E234" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F234" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G234" t="s">
         <v>6</v>
@@ -5739,10 +5754,10 @@
         <v>8</v>
       </c>
       <c r="L234" t="s">
+        <v>400</v>
+      </c>
+      <c r="M234" t="s">
         <v>401</v>
-      </c>
-      <c r="M234" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -5753,10 +5768,10 @@
         <v>8</v>
       </c>
       <c r="L235" t="s">
+        <v>402</v>
+      </c>
+      <c r="M235" t="s">
         <v>403</v>
-      </c>
-      <c r="M235" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -5764,19 +5779,19 @@
         <v>1</v>
       </c>
       <c r="B236" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C236" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D236" t="s">
         <v>3</v>
       </c>
       <c r="E236" t="s">
-        <v>405</v>
+        <v>27</v>
       </c>
       <c r="F236" t="s">
-        <v>405</v>
+        <v>27</v>
       </c>
       <c r="G236" t="s">
         <v>6</v>
@@ -5785,10 +5800,10 @@
         <v>8</v>
       </c>
       <c r="L236" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -5796,19 +5811,19 @@
         <v>1</v>
       </c>
       <c r="B237" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C237" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="D237" t="s">
         <v>3</v>
       </c>
       <c r="E237" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F237" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G237" t="s">
         <v>6</v>
@@ -5817,10 +5832,10 @@
         <v>8</v>
       </c>
       <c r="L237" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M237" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -5831,10 +5846,10 @@
         <v>8</v>
       </c>
       <c r="L238" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M238" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -5842,19 +5857,19 @@
         <v>1</v>
       </c>
       <c r="B239" t="s">
-        <v>103</v>
+        <v>384</v>
       </c>
       <c r="C239" t="s">
-        <v>103</v>
+        <v>384</v>
       </c>
       <c r="D239" t="s">
         <v>3</v>
       </c>
       <c r="E239" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="F239" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="G239" t="s">
         <v>6</v>
@@ -5863,10 +5878,10 @@
         <v>8</v>
       </c>
       <c r="L239" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M239" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -5877,13 +5892,13 @@
         <v>8</v>
       </c>
       <c r="K240" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L240" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M240" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -5891,16 +5906,16 @@
         <v>3</v>
       </c>
       <c r="H241" t="s">
+        <v>412</v>
+      </c>
+      <c r="I241" t="s">
+        <v>8</v>
+      </c>
+      <c r="L241" t="s">
+        <v>413</v>
+      </c>
+      <c r="M241" t="s">
         <v>41</v>
-      </c>
-      <c r="I241" t="s">
-        <v>8</v>
-      </c>
-      <c r="L241" t="s">
-        <v>414</v>
-      </c>
-      <c r="M241" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -5908,19 +5923,19 @@
         <v>1</v>
       </c>
       <c r="B242" t="s">
-        <v>415</v>
+        <v>30</v>
       </c>
       <c r="C242" t="s">
-        <v>415</v>
+        <v>30</v>
       </c>
       <c r="D242" t="s">
         <v>3</v>
       </c>
       <c r="E242" t="s">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="F242" t="s">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="G242" t="s">
         <v>6</v>
@@ -5929,10 +5944,10 @@
         <v>8</v>
       </c>
       <c r="L242" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M242" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -5943,10 +5958,10 @@
         <v>8</v>
       </c>
       <c r="L243" t="s">
+        <v>416</v>
+      </c>
+      <c r="M243" t="s">
         <v>417</v>
-      </c>
-      <c r="M243" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -5954,19 +5969,19 @@
         <v>1</v>
       </c>
       <c r="B244" t="s">
-        <v>419</v>
+        <v>81</v>
       </c>
       <c r="C244" t="s">
-        <v>419</v>
+        <v>81</v>
       </c>
       <c r="D244" t="s">
         <v>3</v>
       </c>
       <c r="E244" t="s">
-        <v>405</v>
+        <v>81</v>
       </c>
       <c r="F244" t="s">
-        <v>405</v>
+        <v>81</v>
       </c>
       <c r="G244" t="s">
         <v>6</v>
@@ -5975,10 +5990,10 @@
         <v>8</v>
       </c>
       <c r="L244" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M244" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -5986,19 +6001,19 @@
         <v>1</v>
       </c>
       <c r="B245" t="s">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="C245" t="s">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="D245" t="s">
         <v>3</v>
       </c>
       <c r="E245" t="s">
-        <v>421</v>
+        <v>30</v>
       </c>
       <c r="F245" t="s">
-        <v>421</v>
+        <v>30</v>
       </c>
       <c r="G245" t="s">
         <v>6</v>
@@ -6007,10 +6022,10 @@
         <v>8</v>
       </c>
       <c r="L245" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M245" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -6021,10 +6036,10 @@
         <v>8</v>
       </c>
       <c r="L246" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M246" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -6032,19 +6047,19 @@
         <v>1</v>
       </c>
       <c r="B247" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C247" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D247" t="s">
         <v>3</v>
       </c>
       <c r="E247" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="F247" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="G247" t="s">
         <v>6</v>
@@ -6053,10 +6068,10 @@
         <v>8</v>
       </c>
       <c r="L247" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M247" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -6067,10 +6082,10 @@
         <v>8</v>
       </c>
       <c r="L248" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M248" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -6078,19 +6093,19 @@
         <v>1</v>
       </c>
       <c r="B249" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C249" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D249" t="s">
         <v>3</v>
       </c>
       <c r="E249" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F249" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G249" t="s">
         <v>6</v>
@@ -6099,10 +6114,10 @@
         <v>8</v>
       </c>
       <c r="L249" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M249" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -6113,10 +6128,10 @@
         <v>8</v>
       </c>
       <c r="L250" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="M250" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -6124,19 +6139,19 @@
         <v>1</v>
       </c>
       <c r="B251" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C251" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D251" t="s">
         <v>3</v>
       </c>
       <c r="E251" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F251" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G251" t="s">
         <v>6</v>
@@ -6145,10 +6160,10 @@
         <v>8</v>
       </c>
       <c r="L251" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M251" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -6156,19 +6171,19 @@
         <v>1</v>
       </c>
       <c r="B252" t="s">
-        <v>400</v>
+        <v>26</v>
       </c>
       <c r="C252" t="s">
-        <v>400</v>
+        <v>26</v>
       </c>
       <c r="D252" t="s">
         <v>3</v>
       </c>
       <c r="E252" t="s">
-        <v>434</v>
+        <v>56</v>
       </c>
       <c r="F252" t="s">
-        <v>434</v>
+        <v>56</v>
       </c>
       <c r="G252" t="s">
         <v>6</v>
@@ -6177,10 +6192,10 @@
         <v>8</v>
       </c>
       <c r="L252" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M252" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -6188,16 +6203,16 @@
         <v>3</v>
       </c>
       <c r="H253" t="s">
-        <v>437</v>
+        <v>39</v>
       </c>
       <c r="I253" t="s">
         <v>8</v>
       </c>
       <c r="L253" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="M253" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -6208,10 +6223,10 @@
         <v>8</v>
       </c>
       <c r="L254" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="M254" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -6219,10 +6234,10 @@
         <v>1</v>
       </c>
       <c r="B255" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="C255" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D255" t="s">
         <v>3</v>
@@ -6231,10 +6246,10 @@
         <v>8</v>
       </c>
       <c r="L255" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="M255" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -6245,10 +6260,10 @@
         <v>8</v>
       </c>
       <c r="L256" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M256" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -6256,10 +6271,10 @@
         <v>1</v>
       </c>
       <c r="B257" t="s">
-        <v>50</v>
+        <v>437</v>
       </c>
       <c r="C257" t="s">
-        <v>50</v>
+        <v>437</v>
       </c>
       <c r="D257" t="s">
         <v>3</v>
@@ -6268,10 +6283,10 @@
         <v>8</v>
       </c>
       <c r="L257" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M257" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -6279,10 +6294,10 @@
         <v>14</v>
       </c>
       <c r="L258" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M258" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -6290,10 +6305,10 @@
         <v>1</v>
       </c>
       <c r="E259" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="F259" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G259" t="s">
         <v>6</v>
@@ -6302,10 +6317,10 @@
         <v>8</v>
       </c>
       <c r="L259" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="M259" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -6316,10 +6331,10 @@
         <v>8</v>
       </c>
       <c r="L260" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="M260" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -6327,19 +6342,19 @@
         <v>1</v>
       </c>
       <c r="B261" t="s">
-        <v>27</v>
+        <v>445</v>
       </c>
       <c r="C261" t="s">
-        <v>27</v>
+        <v>445</v>
       </c>
       <c r="D261" t="s">
         <v>3</v>
       </c>
       <c r="E261" t="s">
-        <v>50</v>
+        <v>419</v>
       </c>
       <c r="F261" t="s">
-        <v>50</v>
+        <v>419</v>
       </c>
       <c r="G261" t="s">
         <v>6</v>
@@ -6348,10 +6363,10 @@
         <v>8</v>
       </c>
       <c r="L261" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M261" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -6362,10 +6377,10 @@
         <v>8</v>
       </c>
       <c r="L262" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M262" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -6373,19 +6388,19 @@
         <v>1</v>
       </c>
       <c r="B263" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="C263" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="D263" t="s">
         <v>3</v>
       </c>
       <c r="E263" t="s">
-        <v>425</v>
+        <v>15</v>
       </c>
       <c r="F263" t="s">
-        <v>425</v>
+        <v>15</v>
       </c>
       <c r="G263" t="s">
         <v>6</v>
@@ -6394,10 +6409,10 @@
         <v>8</v>
       </c>
       <c r="L263" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M263" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -6405,19 +6420,19 @@
         <v>1</v>
       </c>
       <c r="B264" t="s">
-        <v>421</v>
+        <v>56</v>
       </c>
       <c r="C264" t="s">
-        <v>421</v>
+        <v>56</v>
       </c>
       <c r="D264" t="s">
         <v>3</v>
       </c>
       <c r="E264" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F264" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G264" t="s">
         <v>6</v>
@@ -6426,10 +6441,10 @@
         <v>8</v>
       </c>
       <c r="L264" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M264" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -6440,10 +6455,10 @@
         <v>8</v>
       </c>
       <c r="L265" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M265" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -6454,10 +6469,10 @@
         <v>8</v>
       </c>
       <c r="L266" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M266" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -6465,19 +6480,19 @@
         <v>1</v>
       </c>
       <c r="B267" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C267" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D267" t="s">
         <v>3</v>
       </c>
       <c r="E267" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="F267" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="G267" t="s">
         <v>6</v>
@@ -6486,10 +6501,10 @@
         <v>8</v>
       </c>
       <c r="L267" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M267" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -6500,10 +6515,10 @@
         <v>8</v>
       </c>
       <c r="L268" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M268" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -6511,19 +6526,19 @@
         <v>1</v>
       </c>
       <c r="B269" t="s">
-        <v>461</v>
+        <v>61</v>
       </c>
       <c r="C269" t="s">
-        <v>461</v>
+        <v>61</v>
       </c>
       <c r="D269" t="s">
         <v>3</v>
       </c>
       <c r="E269" t="s">
-        <v>57</v>
+        <v>459</v>
       </c>
       <c r="F269" t="s">
-        <v>57</v>
+        <v>459</v>
       </c>
       <c r="G269" t="s">
         <v>6</v>
@@ -6532,10 +6547,10 @@
         <v>8</v>
       </c>
       <c r="L269" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M269" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -6546,10 +6561,10 @@
         <v>8</v>
       </c>
       <c r="L270" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M270" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -6560,10 +6575,10 @@
         <v>8</v>
       </c>
       <c r="L271" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M271" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -6571,34 +6586,34 @@
         <v>1</v>
       </c>
       <c r="B272" t="s">
-        <v>57</v>
+        <v>405</v>
       </c>
       <c r="C272" t="s">
-        <v>57</v>
+        <v>405</v>
       </c>
       <c r="D272" t="s">
         <v>3</v>
       </c>
       <c r="E272" t="s">
-        <v>103</v>
+        <v>414</v>
       </c>
       <c r="F272" t="s">
-        <v>103</v>
+        <v>414</v>
       </c>
       <c r="G272" t="s">
         <v>6</v>
       </c>
       <c r="H272" t="s">
+        <v>464</v>
+      </c>
+      <c r="I272" t="s">
+        <v>8</v>
+      </c>
+      <c r="L272" t="s">
+        <v>465</v>
+      </c>
+      <c r="M272" t="s">
         <v>466</v>
-      </c>
-      <c r="I272" t="s">
-        <v>8</v>
-      </c>
-      <c r="L272" t="s">
-        <v>467</v>
-      </c>
-      <c r="M272" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -6606,19 +6621,19 @@
         <v>1</v>
       </c>
       <c r="B273" t="s">
-        <v>457</v>
+        <v>414</v>
       </c>
       <c r="C273" t="s">
-        <v>457</v>
+        <v>414</v>
       </c>
       <c r="D273" t="s">
         <v>3</v>
       </c>
       <c r="E273" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="F273" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="G273" t="s">
         <v>6</v>
@@ -6627,10 +6642,10 @@
         <v>8</v>
       </c>
       <c r="L273" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M273" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -6641,10 +6656,10 @@
         <v>8</v>
       </c>
       <c r="L274" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M274" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -6652,19 +6667,19 @@
         <v>1</v>
       </c>
       <c r="B275" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="C275" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="D275" t="s">
         <v>3</v>
       </c>
       <c r="E275" t="s">
-        <v>103</v>
+        <v>471</v>
       </c>
       <c r="F275" t="s">
-        <v>103</v>
+        <v>471</v>
       </c>
       <c r="G275" t="s">
         <v>6</v>
@@ -6673,10 +6688,10 @@
         <v>8</v>
       </c>
       <c r="L275" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M275" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -6687,10 +6702,10 @@
         <v>8</v>
       </c>
       <c r="L276" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M276" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -6701,10 +6716,10 @@
         <v>8</v>
       </c>
       <c r="L277" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M277" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -6715,10 +6730,10 @@
         <v>8</v>
       </c>
       <c r="L278" t="s">
+        <v>476</v>
+      </c>
+      <c r="M278" t="s">
         <v>475</v>
-      </c>
-      <c r="M278" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -6726,19 +6741,19 @@
         <v>1</v>
       </c>
       <c r="B279" t="s">
-        <v>44</v>
+        <v>477</v>
       </c>
       <c r="C279" t="s">
-        <v>44</v>
+        <v>477</v>
       </c>
       <c r="D279" t="s">
         <v>3</v>
       </c>
       <c r="E279" t="s">
-        <v>81</v>
+        <v>478</v>
       </c>
       <c r="F279" t="s">
-        <v>81</v>
+        <v>478</v>
       </c>
       <c r="G279" t="s">
         <v>6</v>
@@ -6747,10 +6762,10 @@
         <v>8</v>
       </c>
       <c r="L279" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="M279" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -6758,10 +6773,10 @@
         <v>14</v>
       </c>
       <c r="L280" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M280" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -6769,10 +6784,10 @@
         <v>14</v>
       </c>
       <c r="L281" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M281" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -6780,19 +6795,19 @@
         <v>1</v>
       </c>
       <c r="B282" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C282" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D282" t="s">
         <v>3</v>
       </c>
       <c r="E282" t="s">
-        <v>57</v>
+        <v>450</v>
       </c>
       <c r="F282" t="s">
-        <v>57</v>
+        <v>450</v>
       </c>
       <c r="G282" t="s">
         <v>6</v>
@@ -6801,10 +6816,10 @@
         <v>8</v>
       </c>
       <c r="L282" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M282" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -6812,34 +6827,34 @@
         <v>1</v>
       </c>
       <c r="B283" t="s">
-        <v>383</v>
+        <v>21</v>
       </c>
       <c r="C283" t="s">
-        <v>383</v>
+        <v>21</v>
       </c>
       <c r="D283" t="s">
         <v>3</v>
       </c>
       <c r="E283" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="F283" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="G283" t="s">
         <v>6</v>
       </c>
       <c r="H283" t="s">
-        <v>482</v>
+        <v>378</v>
       </c>
       <c r="I283" t="s">
         <v>8</v>
       </c>
       <c r="L283" t="s">
+        <v>484</v>
+      </c>
+      <c r="M283" t="s">
         <v>483</v>
-      </c>
-      <c r="M283" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -6850,10 +6865,10 @@
         <v>8</v>
       </c>
       <c r="L284" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M284" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -6861,19 +6876,19 @@
         <v>1</v>
       </c>
       <c r="B285" t="s">
-        <v>103</v>
+        <v>450</v>
       </c>
       <c r="C285" t="s">
-        <v>103</v>
+        <v>450</v>
       </c>
       <c r="D285" t="s">
         <v>3</v>
       </c>
       <c r="E285" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F285" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G285" t="s">
         <v>6</v>
@@ -6882,10 +6897,10 @@
         <v>8</v>
       </c>
       <c r="L285" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M285" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -6896,10 +6911,10 @@
         <v>8</v>
       </c>
       <c r="L286" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M286" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -6910,10 +6925,10 @@
         <v>8</v>
       </c>
       <c r="L287" t="s">
+        <v>490</v>
+      </c>
+      <c r="M287" t="s">
         <v>489</v>
-      </c>
-      <c r="M287" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -6921,19 +6936,19 @@
         <v>1</v>
       </c>
       <c r="B288" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C288" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D288" t="s">
         <v>3</v>
       </c>
       <c r="E288" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F288" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G288" t="s">
         <v>6</v>
@@ -6942,10 +6957,10 @@
         <v>8</v>
       </c>
       <c r="L288" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M288" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -6953,10 +6968,10 @@
         <v>14</v>
       </c>
       <c r="L289" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M289" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -6967,10 +6982,10 @@
         <v>8</v>
       </c>
       <c r="L290" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M290" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -6978,19 +6993,19 @@
         <v>1</v>
       </c>
       <c r="B291" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="C291" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="D291" t="s">
         <v>3</v>
       </c>
       <c r="E291" t="s">
-        <v>421</v>
+        <v>52</v>
       </c>
       <c r="F291" t="s">
-        <v>421</v>
+        <v>52</v>
       </c>
       <c r="G291" t="s">
         <v>6</v>
@@ -7016,7 +7031,7 @@
         <v>498</v>
       </c>
       <c r="M292" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -7024,10 +7039,10 @@
         <v>1</v>
       </c>
       <c r="B293" t="s">
-        <v>27</v>
+        <v>459</v>
       </c>
       <c r="C293" t="s">
-        <v>27</v>
+        <v>459</v>
       </c>
       <c r="D293" t="s">
         <v>3</v>
@@ -7039,7 +7054,7 @@
         <v>499</v>
       </c>
       <c r="M293" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -7053,7 +7068,7 @@
         <v>500</v>
       </c>
       <c r="M294" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -7067,7 +7082,7 @@
         <v>501</v>
       </c>
       <c r="M295" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -7075,19 +7090,19 @@
         <v>1</v>
       </c>
       <c r="B296" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C296" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D296" t="s">
         <v>3</v>
       </c>
       <c r="E296" t="s">
-        <v>21</v>
+        <v>455</v>
       </c>
       <c r="F296" t="s">
-        <v>21</v>
+        <v>455</v>
       </c>
       <c r="G296" t="s">
         <v>6</v>
@@ -7107,19 +7122,19 @@
         <v>1</v>
       </c>
       <c r="B297" t="s">
-        <v>77</v>
+        <v>504</v>
       </c>
       <c r="C297" t="s">
-        <v>77</v>
+        <v>504</v>
       </c>
       <c r="D297" t="s">
         <v>3</v>
       </c>
       <c r="E297" t="s">
-        <v>50</v>
+        <v>505</v>
       </c>
       <c r="F297" t="s">
-        <v>50</v>
+        <v>505</v>
       </c>
       <c r="G297" t="s">
         <v>6</v>
@@ -7128,7 +7143,7 @@
         <v>8</v>
       </c>
       <c r="L297" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M297" t="s">
         <v>503</v>
@@ -7139,16 +7154,16 @@
         <v>3</v>
       </c>
       <c r="H298" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I298" t="s">
         <v>8</v>
       </c>
       <c r="L298" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M298" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -7156,19 +7171,19 @@
         <v>1</v>
       </c>
       <c r="B299" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C299" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D299" t="s">
         <v>3</v>
       </c>
       <c r="E299" t="s">
-        <v>495</v>
+        <v>43</v>
       </c>
       <c r="F299" t="s">
-        <v>495</v>
+        <v>43</v>
       </c>
       <c r="G299" t="s">
         <v>6</v>
@@ -7177,10 +7192,10 @@
         <v>8</v>
       </c>
       <c r="L299" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M299" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="300" spans="1:13">
@@ -7191,10 +7206,10 @@
         <v>8</v>
       </c>
       <c r="L300" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M300" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="301" spans="1:13">
@@ -7205,10 +7220,10 @@
         <v>8</v>
       </c>
       <c r="L301" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M301" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="302" spans="1:13">
@@ -7216,19 +7231,19 @@
         <v>1</v>
       </c>
       <c r="B302" t="s">
-        <v>421</v>
+        <v>26</v>
       </c>
       <c r="C302" t="s">
-        <v>421</v>
+        <v>26</v>
       </c>
       <c r="D302" t="s">
         <v>3</v>
       </c>
       <c r="E302" t="s">
-        <v>421</v>
+        <v>78</v>
       </c>
       <c r="F302" t="s">
-        <v>421</v>
+        <v>78</v>
       </c>
       <c r="G302" t="s">
         <v>6</v>
@@ -7237,10 +7252,10 @@
         <v>8</v>
       </c>
       <c r="L302" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M302" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="303" spans="1:13">
@@ -7251,10 +7266,10 @@
         <v>8</v>
       </c>
       <c r="L303" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M303" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="304" spans="1:13">
@@ -7265,10 +7280,10 @@
         <v>8</v>
       </c>
       <c r="L304" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="M304" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -7276,10 +7291,10 @@
         <v>1</v>
       </c>
       <c r="B305" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="C305" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="D305" t="s">
         <v>3</v>
@@ -7288,10 +7303,10 @@
         <v>8</v>
       </c>
       <c r="L305" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M305" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="306" spans="1:13">
@@ -7299,19 +7314,19 @@
         <v>1</v>
       </c>
       <c r="B306" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C306" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D306" t="s">
         <v>3</v>
       </c>
       <c r="E306" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F306" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="G306" t="s">
         <v>6</v>
@@ -7320,10 +7335,10 @@
         <v>8</v>
       </c>
       <c r="L306" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M306" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="307" spans="1:13">
@@ -7334,10 +7349,10 @@
         <v>8</v>
       </c>
       <c r="L307" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M307" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="308" spans="1:13">
@@ -7348,10 +7363,10 @@
         <v>8</v>
       </c>
       <c r="L308" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M308" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="309" spans="1:13">
@@ -7359,19 +7374,19 @@
         <v>1</v>
       </c>
       <c r="B309" t="s">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="C309" t="s">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="D309" t="s">
         <v>3</v>
       </c>
       <c r="E309" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F309" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G309" t="s">
         <v>6</v>
@@ -7380,10 +7395,10 @@
         <v>8</v>
       </c>
       <c r="L309" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="M309" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="310" spans="1:13">
@@ -7391,16 +7406,16 @@
         <v>3</v>
       </c>
       <c r="H310" t="s">
-        <v>482</v>
+        <v>526</v>
       </c>
       <c r="I310" t="s">
         <v>8</v>
       </c>
       <c r="L310" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="M310" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="311" spans="1:13">
@@ -7408,19 +7423,19 @@
         <v>1</v>
       </c>
       <c r="B311" t="s">
-        <v>111</v>
+        <v>471</v>
       </c>
       <c r="C311" t="s">
-        <v>111</v>
+        <v>471</v>
       </c>
       <c r="D311" t="s">
         <v>3</v>
       </c>
       <c r="E311" t="s">
-        <v>32</v>
+        <v>450</v>
       </c>
       <c r="F311" t="s">
-        <v>32</v>
+        <v>450</v>
       </c>
       <c r="G311" t="s">
         <v>6</v>
@@ -7429,10 +7444,10 @@
         <v>8</v>
       </c>
       <c r="L311" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="M311" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="312" spans="1:13">
@@ -7443,10 +7458,10 @@
         <v>8</v>
       </c>
       <c r="L312" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="M312" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="313" spans="1:13">
@@ -7457,10 +7472,10 @@
         <v>8</v>
       </c>
       <c r="L313" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="M313" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="314" spans="1:13">
@@ -7468,19 +7483,19 @@
         <v>1</v>
       </c>
       <c r="B314" t="s">
-        <v>32</v>
+        <v>533</v>
       </c>
       <c r="C314" t="s">
-        <v>32</v>
+        <v>533</v>
       </c>
       <c r="D314" t="s">
         <v>3</v>
       </c>
       <c r="E314" t="s">
-        <v>415</v>
+        <v>534</v>
       </c>
       <c r="F314" t="s">
-        <v>415</v>
+        <v>534</v>
       </c>
       <c r="G314" t="s">
         <v>6</v>
@@ -7489,10 +7504,10 @@
         <v>8</v>
       </c>
       <c r="L314" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="M314" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="315" spans="1:13">
@@ -7503,10 +7518,10 @@
         <v>8</v>
       </c>
       <c r="L315" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="M315" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="316" spans="1:13">
@@ -7514,19 +7529,19 @@
         <v>1</v>
       </c>
       <c r="B316" t="s">
-        <v>31</v>
+        <v>395</v>
       </c>
       <c r="C316" t="s">
-        <v>31</v>
+        <v>395</v>
       </c>
       <c r="D316" t="s">
         <v>3</v>
       </c>
       <c r="E316" t="s">
-        <v>434</v>
+        <v>504</v>
       </c>
       <c r="F316" t="s">
-        <v>434</v>
+        <v>504</v>
       </c>
       <c r="G316" t="s">
         <v>6</v>
@@ -7535,10 +7550,10 @@
         <v>8</v>
       </c>
       <c r="L316" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="M316" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="317" spans="1:13">
@@ -7549,10 +7564,10 @@
         <v>8</v>
       </c>
       <c r="L317" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="M317" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="318" spans="1:13">
@@ -7560,19 +7575,19 @@
         <v>1</v>
       </c>
       <c r="B318" t="s">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="C318" t="s">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="D318" t="s">
         <v>3</v>
       </c>
       <c r="E318" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="F318" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="G318" t="s">
         <v>6</v>
@@ -7581,10 +7596,10 @@
         <v>8</v>
       </c>
       <c r="L318" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="M318" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="319" spans="1:13">
@@ -7592,10 +7607,10 @@
         <v>14</v>
       </c>
       <c r="L319" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="M319" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="320" spans="1:13">
@@ -7603,10 +7618,10 @@
         <v>14</v>
       </c>
       <c r="L320" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="M320" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="321" spans="1:13">
@@ -7617,10 +7632,10 @@
         <v>8</v>
       </c>
       <c r="L321" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="M321" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="322" spans="1:13">
@@ -7628,19 +7643,19 @@
         <v>1</v>
       </c>
       <c r="B322" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C322" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D322" t="s">
         <v>3</v>
       </c>
       <c r="E322" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="F322" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="G322" t="s">
         <v>6</v>
@@ -7649,10 +7664,10 @@
         <v>8</v>
       </c>
       <c r="L322" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="M322" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="323" spans="1:13">
@@ -7660,19 +7675,19 @@
         <v>1</v>
       </c>
       <c r="B323" t="s">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="C323" t="s">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="D323" t="s">
         <v>3</v>
       </c>
       <c r="E323" t="s">
-        <v>419</v>
+        <v>43</v>
       </c>
       <c r="F323" t="s">
-        <v>419</v>
+        <v>43</v>
       </c>
       <c r="G323" t="s">
         <v>6</v>
@@ -7681,10 +7696,10 @@
         <v>8</v>
       </c>
       <c r="L323" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="M323" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="324" spans="1:13">
@@ -7692,16 +7707,16 @@
         <v>3</v>
       </c>
       <c r="H324" t="s">
-        <v>395</v>
+        <v>551</v>
       </c>
       <c r="I324" t="s">
         <v>8</v>
       </c>
       <c r="L324" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="M324" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="325" spans="1:13">
@@ -7709,19 +7724,19 @@
         <v>1</v>
       </c>
       <c r="B325" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="C325" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D325" t="s">
         <v>3</v>
       </c>
       <c r="E325" t="s">
-        <v>400</v>
+        <v>471</v>
       </c>
       <c r="F325" t="s">
-        <v>400</v>
+        <v>471</v>
       </c>
       <c r="G325" t="s">
         <v>6</v>
@@ -7730,10 +7745,10 @@
         <v>8</v>
       </c>
       <c r="L325" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="M325" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="326" spans="1:13">
@@ -7744,10 +7759,10 @@
         <v>8</v>
       </c>
       <c r="L326" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="M326" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="327" spans="1:13">
@@ -7758,13 +7773,13 @@
         <v>8</v>
       </c>
       <c r="K327" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L327" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="M327" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="328" spans="1:13">
@@ -7772,10 +7787,10 @@
         <v>1</v>
       </c>
       <c r="B328" t="s">
-        <v>28</v>
+        <v>471</v>
       </c>
       <c r="C328" t="s">
-        <v>28</v>
+        <v>471</v>
       </c>
       <c r="D328" t="s">
         <v>3</v>
@@ -7784,10 +7799,10 @@
         <v>8</v>
       </c>
       <c r="L328" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="M328" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="329" spans="1:13">
@@ -7795,19 +7810,19 @@
         <v>1</v>
       </c>
       <c r="B329" t="s">
-        <v>44</v>
+        <v>450</v>
       </c>
       <c r="C329" t="s">
-        <v>44</v>
+        <v>450</v>
       </c>
       <c r="D329" t="s">
         <v>3</v>
       </c>
       <c r="E329" t="s">
-        <v>552</v>
+        <v>459</v>
       </c>
       <c r="F329" t="s">
-        <v>552</v>
+        <v>459</v>
       </c>
       <c r="G329" t="s">
         <v>6</v>
@@ -7816,10 +7831,10 @@
         <v>8</v>
       </c>
       <c r="L329" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="M329" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="330" spans="1:13">
@@ -7830,10 +7845,10 @@
         <v>8</v>
       </c>
       <c r="L330" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="M330" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="331" spans="1:13">
@@ -7841,19 +7856,19 @@
         <v>1</v>
       </c>
       <c r="B331" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C331" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D331" t="s">
         <v>3</v>
       </c>
       <c r="E331" t="s">
-        <v>15</v>
+        <v>426</v>
       </c>
       <c r="F331" t="s">
-        <v>15</v>
+        <v>426</v>
       </c>
       <c r="G331" t="s">
         <v>6</v>
@@ -7862,10 +7877,10 @@
         <v>8</v>
       </c>
       <c r="L331" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="M331" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="332" spans="1:13">
@@ -7876,10 +7891,10 @@
         <v>8</v>
       </c>
       <c r="L332" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="M332" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="333" spans="1:13">
@@ -7890,10 +7905,10 @@
         <v>8</v>
       </c>
       <c r="L333" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="M333" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="334" spans="1:13">
@@ -7901,19 +7916,19 @@
         <v>1</v>
       </c>
       <c r="B334" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C334" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D334" t="s">
         <v>3</v>
       </c>
       <c r="E334" t="s">
-        <v>27</v>
+        <v>414</v>
       </c>
       <c r="F334" t="s">
-        <v>27</v>
+        <v>414</v>
       </c>
       <c r="G334" t="s">
         <v>6</v>
@@ -7922,10 +7937,10 @@
         <v>8</v>
       </c>
       <c r="L334" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="M334" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="335" spans="1:13">
@@ -7936,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="L335" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="M335" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="336" spans="1:13">
@@ -7947,34 +7962,34 @@
         <v>1</v>
       </c>
       <c r="B336" t="s">
-        <v>383</v>
+        <v>467</v>
       </c>
       <c r="C336" t="s">
-        <v>383</v>
+        <v>467</v>
       </c>
       <c r="D336" t="s">
         <v>3</v>
       </c>
       <c r="E336" t="s">
-        <v>400</v>
+        <v>21</v>
       </c>
       <c r="F336" t="s">
-        <v>400</v>
+        <v>21</v>
       </c>
       <c r="G336" t="s">
         <v>6</v>
       </c>
       <c r="H336" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="I336" t="s">
         <v>8</v>
       </c>
       <c r="L336" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="M336" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="337" spans="1:13">
@@ -7982,19 +7997,19 @@
         <v>1</v>
       </c>
       <c r="B337" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C337" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D337" t="s">
         <v>3</v>
       </c>
       <c r="E337" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="F337" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G337" t="s">
         <v>6</v>
@@ -8003,10 +8018,10 @@
         <v>8</v>
       </c>
       <c r="L337" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="M337" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="338" spans="1:13">
@@ -8017,13 +8032,13 @@
         <v>8</v>
       </c>
       <c r="K338" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L338" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="M338" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="339" spans="1:13">
@@ -8034,10 +8049,10 @@
         <v>8</v>
       </c>
       <c r="L339" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="M339" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="340" spans="1:13">
@@ -8045,10 +8060,10 @@
         <v>1</v>
       </c>
       <c r="E340" t="s">
-        <v>103</v>
+        <v>478</v>
       </c>
       <c r="F340" t="s">
-        <v>103</v>
+        <v>478</v>
       </c>
       <c r="G340" t="s">
         <v>6</v>
@@ -8057,10 +8072,10 @@
         <v>8</v>
       </c>
       <c r="L340" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="M340" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="341" spans="1:13">
@@ -8071,10 +8086,10 @@
         <v>8</v>
       </c>
       <c r="L341" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="M341" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
